--- a/recs2009_public_codebook.xlsx
+++ b/recs2009_public_codebook.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FS-F1\Shared\RECS\Web updates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15270" windowHeight="8205"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="2118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="2140">
   <si>
     <t>ACOTHERS</t>
   </si>
@@ -7254,12 +7259,98 @@
   <si>
     <t>Note: For each variable used in the final models, the end use(s) it appears in and how it is used there are indicated as follows. For the components, "SPH" refers to space heating, "WTH" refers to water heating, "COL" refers to air conditioning, "RFG" refers to refrigerators, and "OTH" refers to all other purposes. For the mathematical form, a variable is either "B", part of a base term , or "A", part of an adjustment term. For example, AIRCOND has a value of "COL_B" in the Electricity column, which means AIRCOND is included in a base term for the air conditioning component of the electricity end-use model. For further information about the end-use models, please see "End Use Model FAQs", posted on the RECS methodology page.</t>
   </si>
+  <si>
+    <t>IECC_Climate_Pub</t>
+  </si>
+  <si>
+    <t>International Energy Conservation Code (IECC) climate zone (collapsed for public file)</t>
+  </si>
+  <si>
+    <t>HDD50</t>
+  </si>
+  <si>
+    <t>Heating degree days in 2009, base temperature 50F</t>
+  </si>
+  <si>
+    <t>CDD80</t>
+  </si>
+  <si>
+    <t>Cooling degree days in 2009, base temperature 80F</t>
+  </si>
+  <si>
+    <t>GND_HDD65</t>
+  </si>
+  <si>
+    <t>Heating degree days of ground temperature in 2009, base temperature 65F</t>
+  </si>
+  <si>
+    <t>WSF</t>
+  </si>
+  <si>
+    <t>Weather &amp; shielding factor for the housing unit</t>
+  </si>
+  <si>
+    <t>OA_LAT</t>
+  </si>
+  <si>
+    <t>Annual value for latent heat infiltration from outside air into the housing unit</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>Annual average ground water temperature (F) for 2009</t>
+  </si>
+  <si>
+    <t>DesignDBT99</t>
+  </si>
+  <si>
+    <t>Dry bulb design temperature (F) expected to be exceeded 99% of the time</t>
+  </si>
+  <si>
+    <t>DesignDBT1</t>
+  </si>
+  <si>
+    <t>Dry bulb design temperature (F) expected to be exceeded 1% of the time</t>
+  </si>
+  <si>
+    <t>1A-2A
+2B
+3A
+3B-4B
+3C
+4A
+4C
+5A
+5B-5C
+6A-6B
+7A-7B-7AK-8AK</t>
+  </si>
+  <si>
+    <t>IECC climate zones 1A-2A
+IECC climate zone 2B
+IECC climate zone 3A
+IECC climate zones 3B-4B
+IECC climate zone 3C
+IECC climate zone 4A
+IECC climate zone 4C
+IECC climate zone 5A
+IECC climate zones 5B-5C
+IECC climate zones 6A-6B
+IECC climate zones 7A-7B-7AK-8AK</t>
+  </si>
+  <si>
+    <t>Annual value for latent heat infiltration from outside air into the housing unit (Btu/hr-cfm)</t>
+  </si>
+  <si>
+    <t>Weather &amp; shielding factor for the housing unit (1/hr)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7995,6 +8086,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8041,7 +8140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8073,9 +8172,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8107,6 +8207,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8282,15 +8383,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I937"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I948"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="2" customWidth="1"/>
@@ -8300,7 +8401,7 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>2116</v>
       </c>
@@ -8313,7 +8414,7 @@
       <c r="H1" s="37"/>
       <c r="I1" s="37"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1951</v>
       </c>
@@ -8332,7 +8433,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="30">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -8353,7 +8454,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1709</v>
       </c>
@@ -8367,7 +8468,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>556</v>
       </c>
@@ -8381,7 +8482,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="180">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
@@ -8395,7 +8496,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="409.5">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>1763</v>
       </c>
@@ -8409,7 +8510,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>708</v>
       </c>
@@ -8432,7 +8533,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>1767</v>
       </c>
@@ -8444,7 +8545,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>1916</v>
       </c>
@@ -8471,7 +8572,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>1917</v>
       </c>
@@ -8490,7 +8591,7 @@
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>1941</v>
       </c>
@@ -8502,7 +8603,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>1942</v>
       </c>
@@ -8514,7 +8615,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>1797</v>
       </c>
@@ -8528,7 +8629,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
@@ -8551,7 +8652,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>370</v>
       </c>
@@ -8565,7 +8666,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>729</v>
       </c>
@@ -8579,7 +8680,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>335</v>
       </c>
@@ -8593,7 +8694,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>110</v>
       </c>
@@ -8607,7 +8708,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>800</v>
       </c>
@@ -8621,7 +8722,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="120">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>802</v>
       </c>
@@ -8646,7 +8747,7 @@
       </c>
       <c r="I21" s="33"/>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="120">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>433</v>
       </c>
@@ -8660,7 +8761,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>111</v>
       </c>
@@ -8674,7 +8775,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>438</v>
       </c>
@@ -8688,7 +8789,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>355</v>
       </c>
@@ -8702,7 +8803,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>417</v>
       </c>
@@ -8716,7 +8817,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>410</v>
       </c>
@@ -8730,7 +8831,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>756</v>
       </c>
@@ -8744,7 +8845,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>578</v>
       </c>
@@ -8758,7 +8859,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>626</v>
       </c>
@@ -8772,7 +8873,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>387</v>
       </c>
@@ -8786,7 +8887,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>618</v>
       </c>
@@ -8800,7 +8901,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="33" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>710</v>
       </c>
@@ -8814,7 +8915,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="34" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>67</v>
       </c>
@@ -8828,7 +8929,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="4" customFormat="1">
+    <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>388</v>
       </c>
@@ -8842,7 +8943,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="4" customFormat="1">
+    <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>396</v>
       </c>
@@ -8856,7 +8957,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="37" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>457</v>
       </c>
@@ -8870,7 +8971,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="38" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>657</v>
       </c>
@@ -8891,7 +8992,7 @@
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
     </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="39" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>83</v>
       </c>
@@ -8905,7 +9006,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="40" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>117</v>
       </c>
@@ -8919,7 +9020,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="41" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>108</v>
       </c>
@@ -8933,7 +9034,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="42" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>57</v>
       </c>
@@ -8947,7 +9048,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="43" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>209</v>
       </c>
@@ -8961,7 +9062,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="44" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>59</v>
       </c>
@@ -8975,7 +9076,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>1192</v>
       </c>
@@ -8989,7 +9090,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>496</v>
       </c>
@@ -9003,7 +9104,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="47" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>55</v>
       </c>
@@ -9017,7 +9118,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="48" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>1191</v>
       </c>
@@ -9031,7 +9132,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" ht="90">
+    <row r="49" spans="1:4" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>494</v>
       </c>
@@ -9045,7 +9146,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="50" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>62</v>
       </c>
@@ -9059,7 +9160,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="51" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>40</v>
       </c>
@@ -9073,7 +9174,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="52" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>41</v>
       </c>
@@ -9087,7 +9188,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="53" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>207</v>
       </c>
@@ -9101,7 +9202,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="54" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>37</v>
       </c>
@@ -9115,7 +9216,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="55" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>1189</v>
       </c>
@@ -9129,7 +9230,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="4" customFormat="1" ht="90">
+    <row r="56" spans="1:4" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>492</v>
       </c>
@@ -9143,7 +9244,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="57" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>35</v>
       </c>
@@ -9157,7 +9258,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="58" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>1188</v>
       </c>
@@ -9171,7 +9272,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="4" customFormat="1" ht="90">
+    <row r="59" spans="1:4" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>490</v>
       </c>
@@ -9185,7 +9286,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="60" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>43</v>
       </c>
@@ -9199,7 +9300,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="61" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>533</v>
       </c>
@@ -9213,7 +9314,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="62" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>587</v>
       </c>
@@ -9227,7 +9328,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="63" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>244</v>
       </c>
@@ -9241,7 +9342,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="64" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>242</v>
       </c>
@@ -9255,7 +9356,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="65" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>240</v>
       </c>
@@ -9269,7 +9370,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="66" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>535</v>
       </c>
@@ -9283,7 +9384,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="4" customFormat="1" ht="75">
+    <row r="67" spans="1:4" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>586</v>
       </c>
@@ -9297,7 +9398,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="4" customFormat="1" ht="75">
+    <row r="68" spans="1:4" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>467</v>
       </c>
@@ -9311,7 +9412,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="69" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>941</v>
       </c>
@@ -9325,7 +9426,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="70" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>862</v>
       </c>
@@ -9339,7 +9440,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="71" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>1140</v>
       </c>
@@ -9353,7 +9454,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="72" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>1141</v>
       </c>
@@ -9367,7 +9468,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="73" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>981</v>
       </c>
@@ -9381,7 +9482,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="74" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>863</v>
       </c>
@@ -9395,7 +9496,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="75" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>984</v>
       </c>
@@ -9409,7 +9510,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="76" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>945</v>
       </c>
@@ -9423,7 +9524,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="77" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>973</v>
       </c>
@@ -9437,7 +9538,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="78" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>969</v>
       </c>
@@ -9451,7 +9552,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="79" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>1122</v>
       </c>
@@ -9465,7 +9566,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="80" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>1043</v>
       </c>
@@ -9479,7 +9580,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="81" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>1063</v>
       </c>
@@ -9493,7 +9594,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="82" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>957</v>
       </c>
@@ -9507,7 +9608,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="83" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>1058</v>
       </c>
@@ -9521,7 +9622,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="84" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>1107</v>
       </c>
@@ -9535,7 +9636,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="85" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>843</v>
       </c>
@@ -9549,7 +9650,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="86" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>958</v>
       </c>
@@ -9563,7 +9664,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="87" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>962</v>
       </c>
@@ -9577,7 +9678,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="88" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>992</v>
       </c>
@@ -9591,7 +9692,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="89" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>849</v>
       </c>
@@ -9605,7 +9706,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="90" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>867</v>
       </c>
@@ -9619,7 +9720,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="91" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>861</v>
       </c>
@@ -9633,7 +9734,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="92" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>837</v>
       </c>
@@ -9647,7 +9748,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="93" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>901</v>
       </c>
@@ -9661,7 +9762,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="94" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>838</v>
       </c>
@@ -9675,7 +9776,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="95" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>839</v>
       </c>
@@ -9689,7 +9790,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="96" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>1010</v>
       </c>
@@ -9703,7 +9804,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="97" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>836</v>
       </c>
@@ -9717,7 +9818,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="98" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>835</v>
       </c>
@@ -9731,7 +9832,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="99" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>1009</v>
       </c>
@@ -9745,7 +9846,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="100" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>840</v>
       </c>
@@ -9759,7 +9860,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="101" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>827</v>
       </c>
@@ -9773,7 +9874,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="102" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>828</v>
       </c>
@@ -9787,7 +9888,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="103" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>900</v>
       </c>
@@ -9801,7 +9902,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="104" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>825</v>
       </c>
@@ -9815,7 +9916,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="105" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>826</v>
       </c>
@@ -9829,7 +9930,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="106" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>1008</v>
       </c>
@@ -9843,7 +9944,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="107" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>824</v>
       </c>
@@ -9857,7 +9958,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="108" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>1007</v>
       </c>
@@ -9871,7 +9972,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="109" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>823</v>
       </c>
@@ -9885,7 +9986,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="110" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>829</v>
       </c>
@@ -9899,7 +10000,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="111" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>1026</v>
       </c>
@@ -9913,7 +10014,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="112" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>1047</v>
       </c>
@@ -9927,7 +10028,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="113" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>917</v>
       </c>
@@ -9941,7 +10042,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="114" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>916</v>
       </c>
@@ -9955,7 +10056,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="115" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>915</v>
       </c>
@@ -9969,7 +10070,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="116" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>1027</v>
       </c>
@@ -9983,7 +10084,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="117" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>1046</v>
       </c>
@@ -9997,7 +10098,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="118" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>623</v>
       </c>
@@ -10011,7 +10112,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>625</v>
       </c>
@@ -10036,7 +10137,7 @@
       <c r="H119" s="33"/>
       <c r="I119" s="33"/>
     </row>
-    <row r="120" spans="1:9" s="4" customFormat="1">
+    <row r="120" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>620</v>
       </c>
@@ -10050,7 +10151,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="121" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>622</v>
       </c>
@@ -10075,7 +10176,7 @@
       <c r="H121" s="33"/>
       <c r="I121" s="33"/>
     </row>
-    <row r="122" spans="1:9" s="4" customFormat="1">
+    <row r="122" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>468</v>
       </c>
@@ -10089,7 +10190,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="123" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>472</v>
       </c>
@@ -10114,7 +10215,7 @@
       <c r="H123" s="33"/>
       <c r="I123" s="33"/>
     </row>
-    <row r="124" spans="1:9" s="4" customFormat="1" ht="120">
+    <row r="124" spans="1:9" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>474</v>
       </c>
@@ -10139,7 +10240,7 @@
       <c r="H124" s="33"/>
       <c r="I124" s="33"/>
     </row>
-    <row r="125" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="125" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>470</v>
       </c>
@@ -10153,7 +10254,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="126" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>705</v>
       </c>
@@ -10167,7 +10268,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="127" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>371</v>
       </c>
@@ -10188,7 +10289,7 @@
       <c r="H127" s="33"/>
       <c r="I127" s="33"/>
     </row>
-    <row r="128" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="128" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>27</v>
       </c>
@@ -10202,7 +10303,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="129" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>120</v>
       </c>
@@ -10216,7 +10317,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="130" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>464</v>
       </c>
@@ -10237,7 +10338,7 @@
       <c r="H130" s="33"/>
       <c r="I130" s="33"/>
     </row>
-    <row r="131" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="131" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>466</v>
       </c>
@@ -10258,7 +10359,7 @@
       <c r="H131" s="33"/>
       <c r="I131" s="33"/>
     </row>
-    <row r="132" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="132" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>651</v>
       </c>
@@ -10279,7 +10380,7 @@
       <c r="H132" s="33"/>
       <c r="I132" s="33"/>
     </row>
-    <row r="133" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="133" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>616</v>
       </c>
@@ -10302,7 +10403,7 @@
       <c r="H133" s="33"/>
       <c r="I133" s="33"/>
     </row>
-    <row r="134" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="134" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>649</v>
       </c>
@@ -10316,7 +10417,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="135" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>427</v>
       </c>
@@ -10341,7 +10442,7 @@
       <c r="H135" s="33"/>
       <c r="I135" s="33"/>
     </row>
-    <row r="136" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="136" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>225</v>
       </c>
@@ -10355,7 +10456,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="137" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>92</v>
       </c>
@@ -10376,7 +10477,7 @@
       <c r="H137" s="33"/>
       <c r="I137" s="33"/>
     </row>
-    <row r="138" spans="1:9" s="4" customFormat="1">
+    <row r="138" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>421</v>
       </c>
@@ -10397,7 +10498,7 @@
       <c r="H138" s="33"/>
       <c r="I138" s="33"/>
     </row>
-    <row r="139" spans="1:9" s="4" customFormat="1" ht="120">
+    <row r="139" spans="1:9" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>712</v>
       </c>
@@ -10411,7 +10512,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="140" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>593</v>
       </c>
@@ -10432,7 +10533,7 @@
       <c r="H140" s="33"/>
       <c r="I140" s="33"/>
     </row>
-    <row r="141" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="141" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>550</v>
       </c>
@@ -10446,7 +10547,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="142" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>307</v>
       </c>
@@ -10467,7 +10568,7 @@
       <c r="H142" s="33"/>
       <c r="I142" s="33"/>
     </row>
-    <row r="143" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="143" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>18</v>
       </c>
@@ -10481,7 +10582,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="144" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>197</v>
       </c>
@@ -10502,7 +10603,7 @@
       <c r="H144" s="33"/>
       <c r="I144" s="33"/>
     </row>
-    <row r="145" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="145" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>563</v>
       </c>
@@ -10516,7 +10617,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="146" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>272</v>
       </c>
@@ -10530,7 +10631,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="147" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>273</v>
       </c>
@@ -10544,7 +10645,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="4" customFormat="1" ht="120">
+    <row r="148" spans="1:9" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>714</v>
       </c>
@@ -10558,7 +10659,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="149" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>595</v>
       </c>
@@ -10579,7 +10680,7 @@
       <c r="H149" s="33"/>
       <c r="I149" s="33"/>
     </row>
-    <row r="150" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="150" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>552</v>
       </c>
@@ -10593,7 +10694,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="151" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>383</v>
       </c>
@@ -10607,7 +10708,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="152" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>20</v>
       </c>
@@ -10621,7 +10722,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="153" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>199</v>
       </c>
@@ -10642,7 +10743,7 @@
       <c r="H153" s="33"/>
       <c r="I153" s="33"/>
     </row>
-    <row r="154" spans="1:9" s="4" customFormat="1" ht="120">
+    <row r="154" spans="1:9" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>716</v>
       </c>
@@ -10656,7 +10757,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="155" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>597</v>
       </c>
@@ -10677,7 +10778,7 @@
       <c r="H155" s="33"/>
       <c r="I155" s="33"/>
     </row>
-    <row r="156" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="156" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>554</v>
       </c>
@@ -10691,7 +10792,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="157" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>385</v>
       </c>
@@ -10705,7 +10806,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="158" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>22</v>
       </c>
@@ -10719,7 +10820,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="159" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>201</v>
       </c>
@@ -10740,7 +10841,7 @@
       <c r="H159" s="33"/>
       <c r="I159" s="33"/>
     </row>
-    <row r="160" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="160" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>584</v>
       </c>
@@ -10754,7 +10855,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="161" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>419</v>
       </c>
@@ -10775,7 +10876,7 @@
       <c r="H161" s="33"/>
       <c r="I161" s="33"/>
     </row>
-    <row r="162" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="162" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>727</v>
       </c>
@@ -10789,7 +10890,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="163" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>589</v>
       </c>
@@ -10810,7 +10911,7 @@
       <c r="H163" s="33"/>
       <c r="I163" s="33"/>
     </row>
-    <row r="164" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="164" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>223</v>
       </c>
@@ -10831,7 +10932,7 @@
       <c r="H164" s="33"/>
       <c r="I164" s="33"/>
     </row>
-    <row r="165" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="165" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>13</v>
       </c>
@@ -10845,7 +10946,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="166" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>564</v>
       </c>
@@ -10859,7 +10960,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="4" customFormat="1" ht="120">
+    <row r="167" spans="1:9" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>275</v>
       </c>
@@ -10873,7 +10974,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="4" customFormat="1" ht="120">
+    <row r="168" spans="1:9" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>276</v>
       </c>
@@ -10887,7 +10988,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="169" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>728</v>
       </c>
@@ -10901,7 +11002,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="170" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>591</v>
       </c>
@@ -10922,7 +11023,7 @@
       <c r="H170" s="33"/>
       <c r="I170" s="33"/>
     </row>
-    <row r="171" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="171" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>224</v>
       </c>
@@ -10943,7 +11044,7 @@
       <c r="H171" s="33"/>
       <c r="I171" s="33"/>
     </row>
-    <row r="172" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="172" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>15</v>
       </c>
@@ -10957,7 +11058,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="173" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>134</v>
       </c>
@@ -10980,7 +11081,7 @@
       <c r="H173" s="33"/>
       <c r="I173" s="33"/>
     </row>
-    <row r="174" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="174" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>165</v>
       </c>
@@ -11005,7 +11106,7 @@
       <c r="H174" s="33"/>
       <c r="I174" s="33"/>
     </row>
-    <row r="175" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="175" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>11</v>
       </c>
@@ -11019,7 +11120,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="176" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>195</v>
       </c>
@@ -11033,7 +11134,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="4" customFormat="1" ht="75">
+    <row r="177" spans="1:4" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>562</v>
       </c>
@@ -11047,7 +11148,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="4" customFormat="1" ht="120">
+    <row r="178" spans="1:4" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>269</v>
       </c>
@@ -11061,7 +11162,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="4" customFormat="1" ht="135">
+    <row r="179" spans="1:4" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>270</v>
       </c>
@@ -11075,7 +11176,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="180" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>1061</v>
       </c>
@@ -11089,7 +11190,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="181" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>1062</v>
       </c>
@@ -11103,7 +11204,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="182" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>1059</v>
       </c>
@@ -11117,7 +11218,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="183" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>1060</v>
       </c>
@@ -11131,7 +11232,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="184" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>996</v>
       </c>
@@ -11145,7 +11246,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="185" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>998</v>
       </c>
@@ -11159,7 +11260,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="186" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>999</v>
       </c>
@@ -11173,7 +11274,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="187" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>997</v>
       </c>
@@ -11187,7 +11288,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="188" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>1105</v>
       </c>
@@ -11201,7 +11302,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="189" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>949</v>
       </c>
@@ -11215,7 +11316,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="190" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>819</v>
       </c>
@@ -11229,7 +11330,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="191" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>869</v>
       </c>
@@ -11243,7 +11344,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="192" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>994</v>
       </c>
@@ -11257,7 +11358,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="193" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>995</v>
       </c>
@@ -11271,7 +11372,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="194" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>1081</v>
       </c>
@@ -11285,7 +11386,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="195" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>1057</v>
       </c>
@@ -11299,7 +11400,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="196" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>1079</v>
       </c>
@@ -11313,7 +11414,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="197" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>978</v>
       </c>
@@ -11327,7 +11428,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="198" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>907</v>
       </c>
@@ -11341,7 +11442,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="199" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="199" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>853</v>
       </c>
@@ -11355,7 +11456,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="200" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>975</v>
       </c>
@@ -11369,7 +11470,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="201" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="201" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>1108</v>
       </c>
@@ -11383,7 +11484,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="202" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="202" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>1050</v>
       </c>
@@ -11397,7 +11498,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="203" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="203" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>1034</v>
       </c>
@@ -11411,7 +11512,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="204" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>929</v>
       </c>
@@ -11425,7 +11526,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="205" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>814</v>
       </c>
@@ -11439,7 +11540,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="206" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>1109</v>
       </c>
@@ -11453,7 +11554,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="207" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>1051</v>
       </c>
@@ -11467,7 +11568,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="208" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="208" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>1035</v>
       </c>
@@ -11481,7 +11582,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="209" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="209" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>955</v>
       </c>
@@ -11495,7 +11596,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="210" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="210" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>815</v>
       </c>
@@ -11509,7 +11610,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="211" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="211" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>1110</v>
       </c>
@@ -11523,7 +11624,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="212" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="212" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>1052</v>
       </c>
@@ -11537,7 +11638,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="213" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="213" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>1036</v>
       </c>
@@ -11551,7 +11652,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="214" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="214" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>956</v>
       </c>
@@ -11565,7 +11666,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="215" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>816</v>
       </c>
@@ -11579,7 +11680,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="216" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="216" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>1045</v>
       </c>
@@ -11593,7 +11694,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="217" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="217" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>974</v>
       </c>
@@ -11607,7 +11708,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="218" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>1111</v>
       </c>
@@ -11621,7 +11722,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="219" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="219" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>1048</v>
       </c>
@@ -11635,7 +11736,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="220" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="220" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>905</v>
       </c>
@@ -11649,7 +11750,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="221" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="221" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>811</v>
       </c>
@@ -11663,7 +11764,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="222" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="222" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>1112</v>
       </c>
@@ -11677,7 +11778,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="223" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="223" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>1049</v>
       </c>
@@ -11691,7 +11792,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="224" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="224" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>906</v>
       </c>
@@ -11705,7 +11806,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="225" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="225" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>812</v>
       </c>
@@ -11719,7 +11820,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="226" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="226" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>875</v>
       </c>
@@ -11733,7 +11834,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="227" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="227" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>890</v>
       </c>
@@ -11747,7 +11848,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="228" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="228" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>810</v>
       </c>
@@ -11761,7 +11862,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="229" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="229" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>118</v>
       </c>
@@ -11784,7 +11885,7 @@
       <c r="H229" s="33"/>
       <c r="I229" s="33"/>
     </row>
-    <row r="230" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="230" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>650</v>
       </c>
@@ -11798,7 +11899,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="231" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="231" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>759</v>
       </c>
@@ -11821,7 +11922,7 @@
       <c r="H231" s="33"/>
       <c r="I231" s="33"/>
     </row>
-    <row r="232" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="232" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>761</v>
       </c>
@@ -11835,7 +11936,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="233" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="233" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>577</v>
       </c>
@@ -11856,7 +11957,7 @@
       <c r="H233" s="33"/>
       <c r="I233" s="33"/>
     </row>
-    <row r="234" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="234" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>9</v>
       </c>
@@ -11870,7 +11971,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="235" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="235" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>193</v>
       </c>
@@ -11884,7 +11985,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="236" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>561</v>
       </c>
@@ -11898,7 +11999,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="237" spans="1:9" s="4" customFormat="1" ht="120">
+    <row r="237" spans="1:9" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>266</v>
       </c>
@@ -11912,7 +12013,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="238" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="238" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>267</v>
       </c>
@@ -11926,7 +12027,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="239" spans="1:9" s="4" customFormat="1" ht="57.75" customHeight="1">
+    <row r="239" spans="1:9" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>145</v>
       </c>
@@ -11947,7 +12048,7 @@
       <c r="H239" s="33"/>
       <c r="I239" s="33"/>
     </row>
-    <row r="240" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="240" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>147</v>
       </c>
@@ -11972,7 +12073,7 @@
       <c r="H240" s="33"/>
       <c r="I240" s="33"/>
     </row>
-    <row r="241" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="241" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
         <v>149</v>
       </c>
@@ -11993,7 +12094,7 @@
       <c r="H241" s="33"/>
       <c r="I241" s="33"/>
     </row>
-    <row r="242" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="242" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
         <v>5</v>
       </c>
@@ -12007,7 +12108,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="4" customFormat="1">
+    <row r="243" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
         <v>668</v>
       </c>
@@ -12024,7 +12125,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="244" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="244" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
         <v>694</v>
       </c>
@@ -12045,7 +12146,7 @@
       <c r="H244" s="33"/>
       <c r="I244" s="33"/>
     </row>
-    <row r="245" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="245" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>699</v>
       </c>
@@ -12059,7 +12160,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="246" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="246" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>69</v>
       </c>
@@ -12076,7 +12177,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="247" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>94</v>
       </c>
@@ -12093,7 +12194,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="248" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>159</v>
       </c>
@@ -12110,7 +12211,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="249" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>126</v>
       </c>
@@ -12124,7 +12225,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="250" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="250" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>523</v>
       </c>
@@ -12141,7 +12242,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="251" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>100</v>
       </c>
@@ -12155,7 +12256,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="252" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>750</v>
       </c>
@@ -12169,7 +12270,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="253" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>153</v>
       </c>
@@ -12183,7 +12284,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="254" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>662</v>
       </c>
@@ -12200,7 +12301,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="255" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>443</v>
       </c>
@@ -12217,7 +12318,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="256" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>670</v>
       </c>
@@ -12234,7 +12335,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="257" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>676</v>
       </c>
@@ -12248,7 +12349,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="258" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>682</v>
       </c>
@@ -12265,7 +12366,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="259" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>688</v>
       </c>
@@ -12279,7 +12380,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="260" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>696</v>
       </c>
@@ -12300,7 +12401,7 @@
       <c r="H260" s="33"/>
       <c r="I260" s="33"/>
     </row>
-    <row r="261" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="261" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>701</v>
       </c>
@@ -12314,7 +12415,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="262" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="262" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>71</v>
       </c>
@@ -12331,7 +12432,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="263" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>96</v>
       </c>
@@ -12348,7 +12449,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="264" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>161</v>
       </c>
@@ -12365,7 +12466,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="265" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>128</v>
       </c>
@@ -12379,7 +12480,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="266" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>525</v>
       </c>
@@ -12396,7 +12497,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="267" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>102</v>
       </c>
@@ -12410,7 +12511,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="268" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>752</v>
       </c>
@@ -12424,7 +12525,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="269" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>155</v>
       </c>
@@ -12438,7 +12539,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="270" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
         <v>664</v>
       </c>
@@ -12455,7 +12556,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="271" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>445</v>
       </c>
@@ -12472,7 +12573,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="272" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>672</v>
       </c>
@@ -12489,7 +12590,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="273" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>678</v>
       </c>
@@ -12503,7 +12604,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="274" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>684</v>
       </c>
@@ -12520,7 +12621,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="275" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>690</v>
       </c>
@@ -12534,7 +12635,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="276" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>698</v>
       </c>
@@ -12555,7 +12656,7 @@
       <c r="H276" s="33"/>
       <c r="I276" s="33"/>
     </row>
-    <row r="277" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="277" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>703</v>
       </c>
@@ -12569,7 +12670,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="278" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>73</v>
       </c>
@@ -12586,7 +12687,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="279" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="279" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
         <v>98</v>
       </c>
@@ -12603,7 +12704,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="280" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="280" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>163</v>
       </c>
@@ -12620,7 +12721,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="281" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="281" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
         <v>130</v>
       </c>
@@ -12634,7 +12735,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="282" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="282" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
         <v>527</v>
       </c>
@@ -12651,7 +12752,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="283" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
         <v>104</v>
       </c>
@@ -12665,7 +12766,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="284" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
         <v>754</v>
       </c>
@@ -12679,7 +12780,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="285" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
         <v>157</v>
       </c>
@@ -12693,7 +12794,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="286" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
         <v>666</v>
       </c>
@@ -12710,7 +12811,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="287" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>447</v>
       </c>
@@ -12727,7 +12828,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="288" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>674</v>
       </c>
@@ -12744,7 +12845,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="289" spans="1:5" s="4" customFormat="1" ht="90">
+    <row r="289" spans="1:5" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>680</v>
       </c>
@@ -12758,7 +12859,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="290" spans="1:5" s="4" customFormat="1" ht="90">
+    <row r="290" spans="1:5" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
         <v>686</v>
       </c>
@@ -12775,7 +12876,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="291" spans="1:5" s="4" customFormat="1" ht="90">
+    <row r="291" spans="1:5" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>692</v>
       </c>
@@ -12789,7 +12890,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="292" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="292" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>106</v>
       </c>
@@ -12803,7 +12904,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="293" spans="1:5" s="4" customFormat="1">
+    <row r="293" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
         <v>429</v>
       </c>
@@ -12820,7 +12921,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="294" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="294" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>498</v>
       </c>
@@ -12837,7 +12938,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="295" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="295" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>377</v>
       </c>
@@ -12851,7 +12952,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="296" spans="1:5" s="4" customFormat="1" ht="90">
+    <row r="296" spans="1:5" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>643</v>
       </c>
@@ -12868,7 +12969,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="297" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="297" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>476</v>
       </c>
@@ -12885,7 +12986,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="298" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="298" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
         <v>484</v>
       </c>
@@ -12899,7 +13000,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="299" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="299" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
         <v>500</v>
       </c>
@@ -12916,7 +13017,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="300" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="300" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
         <v>379</v>
       </c>
@@ -12930,7 +13031,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="301" spans="1:5" s="4" customFormat="1" ht="90">
+    <row r="301" spans="1:5" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
         <v>645</v>
       </c>
@@ -12947,7 +13048,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="302" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="302" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
         <v>478</v>
       </c>
@@ -12964,7 +13065,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="303" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="303" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
         <v>486</v>
       </c>
@@ -12978,7 +13079,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="304" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="304" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
         <v>502</v>
       </c>
@@ -12995,7 +13096,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="305" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="305" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>381</v>
       </c>
@@ -13009,7 +13110,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="306" spans="1:5" s="4" customFormat="1" ht="90">
+    <row r="306" spans="1:5" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
         <v>647</v>
       </c>
@@ -13026,7 +13127,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="307" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="307" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>480</v>
       </c>
@@ -13043,7 +13144,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="308" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="308" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
         <v>488</v>
       </c>
@@ -13057,7 +13158,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="309" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="309" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>323</v>
       </c>
@@ -13071,7 +13172,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="310" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="310" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>311</v>
       </c>
@@ -13085,7 +13186,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="311" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="311" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
         <v>313</v>
       </c>
@@ -13099,7 +13200,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="312" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="312" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>309</v>
       </c>
@@ -13113,7 +13214,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="313" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="313" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>315</v>
       </c>
@@ -13127,7 +13228,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="314" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="314" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>327</v>
       </c>
@@ -13141,7 +13242,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="315" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="315" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>482</v>
       </c>
@@ -13155,7 +13256,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="316" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="316" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
         <v>205</v>
       </c>
@@ -13172,7 +13273,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="317" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="317" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>115</v>
       </c>
@@ -13186,7 +13287,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="318" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="318" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>772</v>
       </c>
@@ -13203,7 +13304,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="319" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="319" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>132</v>
       </c>
@@ -13220,7 +13321,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="320" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="320" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>628</v>
       </c>
@@ -13234,7 +13335,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="321" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="321" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>30</v>
       </c>
@@ -13251,7 +13352,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="322" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="322" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
         <v>614</v>
       </c>
@@ -13265,7 +13366,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="323" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="323" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
         <v>402</v>
       </c>
@@ -13279,7 +13380,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="324" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="324" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
         <v>28</v>
       </c>
@@ -13293,7 +13394,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="325" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="325" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>65</v>
       </c>
@@ -13307,7 +13408,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="326" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="326" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
         <v>63</v>
       </c>
@@ -13321,7 +13422,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="327" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="327" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>90</v>
       </c>
@@ -13335,7 +13436,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="328" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="328" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
         <v>173</v>
       </c>
@@ -13352,7 +13453,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="329" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="329" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
         <v>171</v>
       </c>
@@ -13369,7 +13470,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="330" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="330" spans="1:5" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
         <v>88</v>
       </c>
@@ -13383,7 +13484,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="331" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="331" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
         <v>868</v>
       </c>
@@ -13397,7 +13498,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="332" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="332" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
         <v>1080</v>
       </c>
@@ -13411,7 +13512,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="333" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="333" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
         <v>1123</v>
       </c>
@@ -13425,7 +13526,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="334" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="334" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>1124</v>
       </c>
@@ -13439,7 +13540,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="335" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="335" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
         <v>1042</v>
       </c>
@@ -13453,7 +13554,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="336" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="336" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
         <v>809</v>
       </c>
@@ -13467,7 +13568,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="337" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="337" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>880</v>
       </c>
@@ -13481,7 +13582,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="338" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="338" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
         <v>881</v>
       </c>
@@ -13495,7 +13596,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="339" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="339" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
         <v>882</v>
       </c>
@@ -13509,7 +13610,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="340" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="340" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
         <v>807</v>
       </c>
@@ -13523,7 +13624,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="341" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="341" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>1086</v>
       </c>
@@ -13537,7 +13638,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="342" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="342" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
         <v>1099</v>
       </c>
@@ -13551,7 +13652,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="343" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="343" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
         <v>1102</v>
       </c>
@@ -13565,7 +13666,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="344" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="344" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
         <v>844</v>
       </c>
@@ -13579,7 +13680,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="345" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="345" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
         <v>854</v>
       </c>
@@ -13593,7 +13694,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="346" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="346" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
         <v>887</v>
       </c>
@@ -13607,7 +13708,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="347" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="347" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
         <v>871</v>
       </c>
@@ -13621,7 +13722,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="348" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="348" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
         <v>1022</v>
       </c>
@@ -13635,7 +13736,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="349" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="349" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
         <v>857</v>
       </c>
@@ -13649,7 +13750,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="350" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="350" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
         <v>1119</v>
       </c>
@@ -13663,7 +13764,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="351" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
         <v>884</v>
       </c>
@@ -13677,7 +13778,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="352" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
         <v>1083</v>
       </c>
@@ -13691,7 +13792,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="353" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
         <v>985</v>
       </c>
@@ -13705,7 +13806,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="354" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
         <v>1087</v>
       </c>
@@ -13719,7 +13820,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="355" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
         <v>1090</v>
       </c>
@@ -13733,7 +13834,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="356" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
         <v>1093</v>
       </c>
@@ -13747,7 +13848,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="357" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
         <v>1096</v>
       </c>
@@ -13761,7 +13862,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="358" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
         <v>1100</v>
       </c>
@@ -13775,7 +13876,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="359" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
         <v>1103</v>
       </c>
@@ -13789,7 +13890,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="360" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
         <v>845</v>
       </c>
@@ -13803,7 +13904,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="361" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
         <v>855</v>
       </c>
@@ -13817,7 +13918,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="362" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
         <v>888</v>
       </c>
@@ -13831,7 +13932,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="363" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
         <v>872</v>
       </c>
@@ -13845,7 +13946,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="364" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
         <v>1023</v>
       </c>
@@ -13859,7 +13960,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="365" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
         <v>858</v>
       </c>
@@ -13873,7 +13974,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="366" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
         <v>1120</v>
       </c>
@@ -13887,7 +13988,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="367" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
         <v>885</v>
       </c>
@@ -13901,7 +14002,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="368" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
         <v>1084</v>
       </c>
@@ -13915,7 +14016,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="369" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
         <v>986</v>
       </c>
@@ -13929,7 +14030,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="370" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
         <v>1088</v>
       </c>
@@ -13943,7 +14044,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="371" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
         <v>1091</v>
       </c>
@@ -13957,7 +14058,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="372" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
         <v>1094</v>
       </c>
@@ -13971,7 +14072,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="373" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
         <v>1097</v>
       </c>
@@ -13985,7 +14086,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="374" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
         <v>1101</v>
       </c>
@@ -13999,7 +14100,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="375" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
         <v>1104</v>
       </c>
@@ -14013,7 +14114,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="376" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
         <v>846</v>
       </c>
@@ -14027,7 +14128,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="377" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
         <v>856</v>
       </c>
@@ -14041,7 +14142,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="378" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
         <v>889</v>
       </c>
@@ -14055,7 +14156,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="379" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
         <v>873</v>
       </c>
@@ -14069,7 +14170,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="380" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
         <v>1024</v>
       </c>
@@ -14083,7 +14184,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="381" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
         <v>859</v>
       </c>
@@ -14097,7 +14198,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="382" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
         <v>1121</v>
       </c>
@@ -14111,7 +14212,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="383" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
         <v>886</v>
       </c>
@@ -14125,7 +14226,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="384" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="384" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
         <v>1085</v>
       </c>
@@ -14139,7 +14240,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="385" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="385" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
         <v>987</v>
       </c>
@@ -14153,7 +14254,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="386" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="386" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
         <v>1089</v>
       </c>
@@ -14167,7 +14268,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="387" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="387" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
         <v>1092</v>
       </c>
@@ -14181,7 +14282,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="388" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="388" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
         <v>1095</v>
       </c>
@@ -14195,7 +14296,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="389" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="389" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
         <v>1098</v>
       </c>
@@ -14209,7 +14310,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="390" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="390" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
         <v>860</v>
       </c>
@@ -14223,7 +14324,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="391" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="391" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
         <v>979</v>
       </c>
@@ -14237,7 +14338,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="392" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="392" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
         <v>1011</v>
       </c>
@@ -14251,7 +14352,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="393" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="393" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
         <v>952</v>
       </c>
@@ -14265,7 +14366,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="394" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="394" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
         <v>1076</v>
       </c>
@@ -14279,7 +14380,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="395" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="395" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
         <v>1000</v>
       </c>
@@ -14293,7 +14394,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="396" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="396" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
         <v>1004</v>
       </c>
@@ -14307,7 +14408,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="397" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="397" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
         <v>1012</v>
       </c>
@@ -14321,7 +14422,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="398" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="398" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
         <v>953</v>
       </c>
@@ -14335,7 +14436,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="399" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="399" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
         <v>1077</v>
       </c>
@@ -14349,7 +14450,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="400" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="400" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
         <v>1001</v>
       </c>
@@ -14363,7 +14464,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="401" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="401" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
         <v>1005</v>
       </c>
@@ -14377,7 +14478,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="402" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="402" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
         <v>1013</v>
       </c>
@@ -14391,7 +14492,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="403" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="403" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
         <v>954</v>
       </c>
@@ -14405,7 +14506,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="404" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="404" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
         <v>1078</v>
       </c>
@@ -14419,7 +14520,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="405" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="405" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
         <v>1002</v>
       </c>
@@ -14433,7 +14534,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="406" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="406" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
         <v>1006</v>
       </c>
@@ -14447,7 +14548,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="407" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="407" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
         <v>936</v>
       </c>
@@ -14461,7 +14562,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="408" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="408" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
         <v>931</v>
       </c>
@@ -14475,7 +14576,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="409" spans="1:4" s="5" customFormat="1" ht="30">
+    <row r="409" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
         <v>932</v>
       </c>
@@ -14489,7 +14590,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="410" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="410" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
         <v>930</v>
       </c>
@@ -14503,7 +14604,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="411" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="411" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
         <v>933</v>
       </c>
@@ -14517,7 +14618,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="412" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="412" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
         <v>938</v>
       </c>
@@ -14531,7 +14632,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="413" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="413" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
         <v>1003</v>
       </c>
@@ -14545,7 +14646,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="414" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="414" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
         <v>899</v>
       </c>
@@ -14559,7 +14660,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="415" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="415" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
         <v>866</v>
       </c>
@@ -14573,7 +14674,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="416" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="416" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
         <v>1128</v>
       </c>
@@ -14587,7 +14688,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="417" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="417" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
         <v>874</v>
       </c>
@@ -14601,7 +14702,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="418" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="418" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
         <v>1064</v>
       </c>
@@ -14615,7 +14716,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="419" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="419" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
         <v>821</v>
       </c>
@@ -14629,7 +14730,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="420" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="420" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
         <v>1056</v>
       </c>
@@ -14643,7 +14744,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="421" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="421" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
         <v>965</v>
       </c>
@@ -14657,7 +14758,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="422" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="422" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
         <v>820</v>
       </c>
@@ -14671,7 +14772,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="423" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="423" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
         <v>842</v>
       </c>
@@ -14685,7 +14786,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="424" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="424" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
         <v>841</v>
       </c>
@@ -14699,7 +14800,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="425" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="425" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
         <v>852</v>
       </c>
@@ -14713,7 +14814,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="426" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="426" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
         <v>893</v>
       </c>
@@ -14727,7 +14828,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="427" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="427" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
         <v>892</v>
       </c>
@@ -14741,7 +14842,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="428" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="428" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
         <v>851</v>
       </c>
@@ -14755,7 +14856,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="429" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="429" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
         <v>252</v>
       </c>
@@ -14769,7 +14870,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="430" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="430" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
         <v>140</v>
       </c>
@@ -14783,7 +14884,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="431" spans="1:4" s="4" customFormat="1" ht="195">
+    <row r="431" spans="1:4" s="4" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
         <v>191</v>
       </c>
@@ -14797,7 +14898,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="432" spans="1:4" s="4" customFormat="1" ht="150">
+    <row r="432" spans="1:4" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
         <v>233</v>
       </c>
@@ -14811,7 +14912,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="433" spans="1:9" s="4" customFormat="1" ht="195">
+    <row r="433" spans="1:9" s="4" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
         <v>190</v>
       </c>
@@ -14834,7 +14935,7 @@
       <c r="H433" s="33"/>
       <c r="I433" s="33"/>
     </row>
-    <row r="434" spans="1:9" s="4" customFormat="1" ht="150">
+    <row r="434" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
         <v>231</v>
       </c>
@@ -14863,7 +14964,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="435" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="435" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
         <v>369</v>
       </c>
@@ -14877,7 +14978,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="436" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="436" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
         <v>186</v>
       </c>
@@ -14891,7 +14992,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="437" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="437" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
         <v>565</v>
       </c>
@@ -14905,7 +15006,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="438" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="438" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
         <v>278</v>
       </c>
@@ -14919,7 +15020,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="439" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="439" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
         <v>279</v>
       </c>
@@ -14933,7 +15034,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="440" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="440" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
         <v>253</v>
       </c>
@@ -14947,7 +15048,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="441" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="441" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
         <v>188</v>
       </c>
@@ -14961,7 +15062,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="442" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="442" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
         <v>569</v>
       </c>
@@ -14975,7 +15076,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="443" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="443" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
         <v>758</v>
       </c>
@@ -14989,7 +15090,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="444" spans="1:9" s="4" customFormat="1" ht="150">
+    <row r="444" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
         <v>238</v>
       </c>
@@ -15003,7 +15104,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="445" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="445" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
         <v>612</v>
       </c>
@@ -15017,7 +15118,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="446" spans="1:9" s="4" customFormat="1" ht="150">
+    <row r="446" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
         <v>545</v>
       </c>
@@ -15031,7 +15132,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="447" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="447" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
         <v>513</v>
       </c>
@@ -15045,7 +15146,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="448" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="448" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
         <v>521</v>
       </c>
@@ -15059,7 +15160,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="449" spans="1:9" s="4" customFormat="1" ht="150">
+    <row r="449" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
         <v>519</v>
       </c>
@@ -15073,7 +15174,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="450" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="450" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
         <v>580</v>
       </c>
@@ -15087,7 +15188,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="451" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="451" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
         <v>573</v>
       </c>
@@ -15101,7 +15202,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="452" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="452" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
         <v>792</v>
       </c>
@@ -15115,7 +15216,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="453" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="453" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
         <v>303</v>
       </c>
@@ -15129,7 +15230,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="454" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="454" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
         <v>75</v>
       </c>
@@ -15143,7 +15244,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="455" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="455" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
         <v>77</v>
       </c>
@@ -15164,7 +15265,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="456" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="456" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
         <v>86</v>
       </c>
@@ -15178,7 +15279,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="457" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="457" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
         <v>221</v>
       </c>
@@ -15192,7 +15293,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="458" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="458" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
         <v>394</v>
       </c>
@@ -15206,7 +15307,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="459" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="459" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
         <v>741</v>
       </c>
@@ -15220,7 +15321,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="460" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="460" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
         <v>547</v>
       </c>
@@ -15234,7 +15335,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="461" spans="1:9" s="4" customFormat="1" ht="120">
+    <row r="461" spans="1:9" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
         <v>575</v>
       </c>
@@ -15248,7 +15349,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="462" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="462" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
         <v>122</v>
       </c>
@@ -15262,7 +15363,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="463" spans="1:9" s="4" customFormat="1" ht="150">
+    <row r="463" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
         <v>124</v>
       </c>
@@ -15276,7 +15377,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="464" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="464" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
         <v>185</v>
       </c>
@@ -15303,7 +15404,7 @@
       </c>
       <c r="I464" s="33"/>
     </row>
-    <row r="465" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="465" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
         <v>254</v>
       </c>
@@ -15317,7 +15418,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="466" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="466" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
         <v>640</v>
       </c>
@@ -15331,7 +15432,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="467" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="467" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
         <v>431</v>
       </c>
@@ -15345,7 +15446,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="468" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="468" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
         <v>537</v>
       </c>
@@ -15359,7 +15460,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="469" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="469" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
         <v>52</v>
       </c>
@@ -15373,7 +15474,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="470" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="470" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
         <v>50</v>
       </c>
@@ -15387,7 +15488,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="471" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="471" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
         <v>636</v>
       </c>
@@ -15401,7 +15502,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="472" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="472" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
         <v>634</v>
       </c>
@@ -15422,7 +15523,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="473" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="473" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
         <v>638</v>
       </c>
@@ -15436,7 +15537,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="474" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="474" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
         <v>373</v>
       </c>
@@ -15457,7 +15558,7 @@
       <c r="H474" s="33"/>
       <c r="I474" s="33"/>
     </row>
-    <row r="475" spans="1:9" s="4" customFormat="1" ht="90">
+    <row r="475" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
         <v>738</v>
       </c>
@@ -15478,7 +15579,7 @@
       <c r="H475" s="33"/>
       <c r="I475" s="33"/>
     </row>
-    <row r="476" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="476" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
         <v>921</v>
       </c>
@@ -15492,7 +15593,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="477" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="477" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
         <v>877</v>
       </c>
@@ -15506,7 +15607,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="478" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="478" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
         <v>898</v>
       </c>
@@ -15520,7 +15621,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="479" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="479" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
         <v>911</v>
       </c>
@@ -15534,7 +15635,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="480" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="480" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
         <v>897</v>
       </c>
@@ -15548,7 +15649,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="481" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="481" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
         <v>910</v>
       </c>
@@ -15562,7 +15663,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="482" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="482" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
         <v>948</v>
       </c>
@@ -15576,7 +15677,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="483" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="483" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
         <v>896</v>
       </c>
@@ -15590,7 +15691,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="484" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="484" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
         <v>922</v>
       </c>
@@ -15604,7 +15705,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="485" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="485" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
         <v>914</v>
       </c>
@@ -15618,7 +15719,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="486" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="486" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A486" s="10" t="s">
         <v>1032</v>
       </c>
@@ -15632,7 +15733,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="487" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="487" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
         <v>1021</v>
       </c>
@@ -15646,7 +15747,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="488" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="488" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
         <v>1040</v>
       </c>
@@ -15660,7 +15761,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="489" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="489" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
         <v>927</v>
       </c>
@@ -15674,7 +15775,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="490" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="490" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
         <v>904</v>
       </c>
@@ -15688,7 +15789,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="491" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="491" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
         <v>961</v>
       </c>
@@ -15702,7 +15803,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="492" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="492" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
         <v>1116</v>
       </c>
@@ -15716,7 +15817,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="493" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="493" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
         <v>1041</v>
       </c>
@@ -15730,7 +15831,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="494" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="494" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
         <v>870</v>
       </c>
@@ -15744,7 +15845,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="495" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="495" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
         <v>895</v>
       </c>
@@ -15758,7 +15859,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="496" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="496" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
         <v>923</v>
       </c>
@@ -15772,7 +15873,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="497" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="497" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="10" t="s">
         <v>1074</v>
       </c>
@@ -15786,7 +15887,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="498" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="498" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="10" t="s">
         <v>980</v>
       </c>
@@ -15800,7 +15901,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="499" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="499" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="10" t="s">
         <v>1028</v>
       </c>
@@ -15814,7 +15915,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="500" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="500" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="10" t="s">
         <v>834</v>
       </c>
@@ -15828,7 +15929,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="501" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="501" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A501" s="10" t="s">
         <v>833</v>
       </c>
@@ -15842,7 +15943,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="502" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="502" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="10" t="s">
         <v>1070</v>
       </c>
@@ -15856,7 +15957,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="503" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="503" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="10" t="s">
         <v>1068</v>
       </c>
@@ -15870,7 +15971,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="504" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="504" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="10" t="s">
         <v>1072</v>
       </c>
@@ -15884,7 +15985,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="505" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="505" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A505" s="10" t="s">
         <v>950</v>
       </c>
@@ -15898,7 +15999,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="506" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="506" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A506" s="10" t="s">
         <v>1115</v>
       </c>
@@ -15912,7 +16013,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="507" spans="1:9" s="4" customFormat="1">
+    <row r="507" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="10" t="s">
         <v>425</v>
       </c>
@@ -15935,7 +16036,7 @@
       </c>
       <c r="I507" s="33"/>
     </row>
-    <row r="508" spans="1:9" s="4" customFormat="1">
+    <row r="508" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="10" t="s">
         <v>423</v>
       </c>
@@ -15958,7 +16059,7 @@
       </c>
       <c r="I508" s="33"/>
     </row>
-    <row r="509" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="509" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A509" s="10" t="s">
         <v>246</v>
       </c>
@@ -15985,7 +16086,7 @@
       </c>
       <c r="I509" s="33"/>
     </row>
-    <row r="510" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="510" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A510" s="10" t="s">
         <v>227</v>
       </c>
@@ -16014,7 +16115,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="511" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="511" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A511" s="10" t="s">
         <v>780</v>
       </c>
@@ -16028,7 +16129,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="512" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="512" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A512" s="10" t="s">
         <v>782</v>
       </c>
@@ -16055,7 +16156,7 @@
       </c>
       <c r="I512" s="33"/>
     </row>
-    <row r="513" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="513" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A513" s="10" t="s">
         <v>774</v>
       </c>
@@ -16076,7 +16177,7 @@
       <c r="H513" s="33"/>
       <c r="I513" s="33"/>
     </row>
-    <row r="514" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="514" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A514" s="10" t="s">
         <v>778</v>
       </c>
@@ -16090,7 +16191,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="515" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="515" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A515" s="10" t="s">
         <v>285</v>
       </c>
@@ -16104,7 +16205,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="516" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="516" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A516" s="10" t="s">
         <v>286</v>
       </c>
@@ -16118,7 +16219,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="517" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="517" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A517" s="10" t="s">
         <v>248</v>
       </c>
@@ -16143,7 +16244,7 @@
       </c>
       <c r="I517" s="33"/>
     </row>
-    <row r="518" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="518" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A518" s="10" t="s">
         <v>229</v>
       </c>
@@ -16172,7 +16273,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="519" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="519" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A519" s="10" t="s">
         <v>784</v>
       </c>
@@ -16197,7 +16298,7 @@
       </c>
       <c r="I519" s="33"/>
     </row>
-    <row r="520" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="520" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A520" s="10" t="s">
         <v>776</v>
       </c>
@@ -16211,7 +16312,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="521" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="521" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A521" s="10" t="s">
         <v>976</v>
       </c>
@@ -16225,7 +16326,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="522" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="522" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="10" t="s">
         <v>977</v>
       </c>
@@ -16239,7 +16340,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="523" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="523" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="10" t="s">
         <v>918</v>
       </c>
@@ -16253,7 +16354,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="524" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="524" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A524" s="10" t="s">
         <v>908</v>
       </c>
@@ -16267,7 +16368,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="525" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="525" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A525" s="10" t="s">
         <v>1132</v>
       </c>
@@ -16281,7 +16382,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="526" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="526" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A526" s="10" t="s">
         <v>1133</v>
       </c>
@@ -16295,7 +16396,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="527" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="527" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A527" s="10" t="s">
         <v>1129</v>
       </c>
@@ -16309,7 +16410,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="528" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="528" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A528" s="10" t="s">
         <v>1131</v>
       </c>
@@ -16323,7 +16424,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="529" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="529" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="10" t="s">
         <v>919</v>
       </c>
@@ -16337,7 +16438,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="530" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="530" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A530" s="10" t="s">
         <v>909</v>
       </c>
@@ -16351,7 +16452,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="531" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="531" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A531" s="10" t="s">
         <v>1134</v>
       </c>
@@ -16365,7 +16466,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="532" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="532" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A532" s="10" t="s">
         <v>1130</v>
       </c>
@@ -16379,7 +16480,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="30">
+    <row r="533" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A533" s="10" t="s">
         <v>26</v>
       </c>
@@ -16400,7 +16501,7 @@
       <c r="H533" s="33"/>
       <c r="I533" s="33"/>
     </row>
-    <row r="534" spans="1:9" ht="45">
+    <row r="534" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A534" s="10" t="s">
         <v>138</v>
       </c>
@@ -16414,7 +16515,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="535" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="535" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A535" s="10" t="s">
         <v>113</v>
       </c>
@@ -16428,7 +16529,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="536" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="536" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A536" s="10" t="s">
         <v>112</v>
       </c>
@@ -16449,7 +16550,7 @@
       <c r="H536" s="33"/>
       <c r="I536" s="33"/>
     </row>
-    <row r="537" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="537" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A537" s="10" t="s">
         <v>151</v>
       </c>
@@ -16463,7 +16564,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="538" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="538" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A538" s="10" t="s">
         <v>84</v>
       </c>
@@ -16477,7 +16578,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="539" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="539" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A539" s="10" t="s">
         <v>0</v>
       </c>
@@ -16491,7 +16592,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="540" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="540" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A540" s="10" t="s">
         <v>368</v>
       </c>
@@ -16505,7 +16606,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="541" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="541" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A541" s="10" t="s">
         <v>7</v>
       </c>
@@ -16519,7 +16620,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="542" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="542" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A542" s="10" t="s">
         <v>560</v>
       </c>
@@ -16533,7 +16634,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="543" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="543" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A543" s="10" t="s">
         <v>259</v>
       </c>
@@ -16547,7 +16648,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="544" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="544" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A544" s="10" t="s">
         <v>260</v>
       </c>
@@ -16561,7 +16662,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="545" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="545" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="10" t="s">
         <v>1</v>
       </c>
@@ -16575,7 +16676,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="546" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="546" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A546" s="10" t="s">
         <v>730</v>
       </c>
@@ -16596,7 +16697,7 @@
       <c r="H546" s="33"/>
       <c r="I546" s="33"/>
     </row>
-    <row r="547" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="547" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A547" s="10" t="s">
         <v>641</v>
       </c>
@@ -16610,7 +16711,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="548" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="548" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="10" t="s">
         <v>539</v>
       </c>
@@ -16624,7 +16725,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="549" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="549" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A549" s="10" t="s">
         <v>48</v>
       </c>
@@ -16638,7 +16739,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="550" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="550" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A550" s="10" t="s">
         <v>46</v>
       </c>
@@ -16652,7 +16753,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="551" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="551" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="10" t="s">
         <v>637</v>
       </c>
@@ -16666,7 +16767,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="552" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="552" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A552" s="10" t="s">
         <v>635</v>
       </c>
@@ -16680,7 +16781,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="553" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="553" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A553" s="10" t="s">
         <v>639</v>
       </c>
@@ -16694,7 +16795,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="554" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="554" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A554" s="10" t="s">
         <v>411</v>
       </c>
@@ -16715,7 +16816,7 @@
       <c r="H554" s="33"/>
       <c r="I554" s="33"/>
     </row>
-    <row r="555" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="555" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A555" s="10" t="s">
         <v>798</v>
       </c>
@@ -16729,7 +16830,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="556" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="556" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A556" s="10" t="s">
         <v>203</v>
       </c>
@@ -16743,7 +16844,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="557" spans="1:9" s="4" customFormat="1" ht="75">
+    <row r="557" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A557" s="10" t="s">
         <v>566</v>
       </c>
@@ -16757,7 +16858,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="558" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="558" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A558" s="10" t="s">
         <v>295</v>
       </c>
@@ -16771,7 +16872,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="559" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="559" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A559" s="10" t="s">
         <v>296</v>
       </c>
@@ -16785,7 +16886,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="560" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="560" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A560" s="10" t="s">
         <v>748</v>
       </c>
@@ -16806,7 +16907,7 @@
       <c r="H560" s="33"/>
       <c r="I560" s="33"/>
     </row>
-    <row r="561" spans="1:5" s="4" customFormat="1">
+    <row r="561" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="10" t="s">
         <v>413</v>
       </c>
@@ -16823,7 +16924,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="562" spans="1:5" s="4" customFormat="1" ht="75">
+    <row r="562" spans="1:5" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A562" s="10" t="s">
         <v>732</v>
       </c>
@@ -16837,7 +16938,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="563" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="563" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A563" s="10" t="s">
         <v>661</v>
       </c>
@@ -16851,7 +16952,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="564" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="564" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A564" s="10" t="s">
         <v>406</v>
       </c>
@@ -16868,7 +16969,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="565" spans="1:5" s="4" customFormat="1" ht="90">
+    <row r="565" spans="1:5" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A565" s="10" t="s">
         <v>743</v>
       </c>
@@ -16885,7 +16986,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="566" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="566" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A566" s="10" t="s">
         <v>818</v>
       </c>
@@ -16899,7 +17000,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="567" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="567" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A567" s="10" t="s">
         <v>876</v>
       </c>
@@ -16913,7 +17014,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="568" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="568" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="10" t="s">
         <v>865</v>
       </c>
@@ -16927,7 +17028,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="569" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="569" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A569" s="10" t="s">
         <v>864</v>
       </c>
@@ -16941,7 +17042,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="570" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="570" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A570" s="10" t="s">
         <v>883</v>
       </c>
@@ -16955,7 +17056,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="571" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="571" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A571" s="10" t="s">
         <v>850</v>
       </c>
@@ -16969,7 +17070,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="572" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="572" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A572" s="10" t="s">
         <v>803</v>
       </c>
@@ -16983,7 +17084,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="573" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="573" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A573" s="10" t="s">
         <v>947</v>
       </c>
@@ -16997,7 +17098,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="574" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="574" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A574" s="10" t="s">
         <v>808</v>
       </c>
@@ -17011,7 +17112,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="575" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="575" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="10" t="s">
         <v>1113</v>
       </c>
@@ -17025,7 +17126,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="576" spans="1:5" s="4" customFormat="1" ht="30">
+    <row r="576" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="10" t="s">
         <v>804</v>
       </c>
@@ -17039,7 +17140,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="577" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="577" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A577" s="10" t="s">
         <v>1075</v>
       </c>
@@ -17053,7 +17154,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="578" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="578" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="10" t="s">
         <v>1029</v>
       </c>
@@ -17067,7 +17168,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="579" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="579" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A579" s="10" t="s">
         <v>832</v>
       </c>
@@ -17081,7 +17182,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="580" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="580" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A580" s="10" t="s">
         <v>831</v>
       </c>
@@ -17095,7 +17196,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="581" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="581" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A581" s="10" t="s">
         <v>1071</v>
       </c>
@@ -17109,7 +17210,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="582" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="582" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A582" s="10" t="s">
         <v>1069</v>
       </c>
@@ -17123,7 +17224,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="583" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="583" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A583" s="10" t="s">
         <v>1073</v>
       </c>
@@ -17137,7 +17238,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="584" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="584" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A584" s="10" t="s">
         <v>970</v>
       </c>
@@ -17151,7 +17252,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="585" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="585" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="10" t="s">
         <v>1139</v>
       </c>
@@ -17165,7 +17266,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="586" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="586" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="10" t="s">
         <v>1118</v>
       </c>
@@ -17179,7 +17280,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="587" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="587" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A587" s="10" t="s">
         <v>971</v>
       </c>
@@ -17193,7 +17294,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="588" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="588" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" s="10" t="s">
         <v>1114</v>
       </c>
@@ -17207,7 +17308,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="589" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="589" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A589" s="10" t="s">
         <v>1082</v>
       </c>
@@ -17221,7 +17322,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="590" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="590" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A590" s="10" t="s">
         <v>967</v>
       </c>
@@ -17235,7 +17336,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="591" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="591" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A591" s="10" t="s">
         <v>1117</v>
       </c>
@@ -17249,7 +17350,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="592" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="592" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A592" s="10" t="s">
         <v>302</v>
       </c>
@@ -17263,7 +17364,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="593" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="593" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A593" s="10" t="s">
         <v>81</v>
       </c>
@@ -17284,7 +17385,7 @@
       </c>
       <c r="I593" s="33"/>
     </row>
-    <row r="594" spans="1:9" ht="45">
+    <row r="594" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A594" s="10" t="s">
         <v>629</v>
       </c>
@@ -17305,7 +17406,7 @@
       <c r="H594" s="33"/>
       <c r="I594" s="33"/>
     </row>
-    <row r="595" spans="1:9" ht="45">
+    <row r="595" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A595" s="10" t="s">
         <v>529</v>
       </c>
@@ -17319,7 +17420,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="120">
+    <row r="596" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A596" s="10" t="s">
         <v>234</v>
       </c>
@@ -17346,7 +17447,7 @@
       </c>
       <c r="I596" s="33"/>
     </row>
-    <row r="597" spans="1:9" ht="30">
+    <row r="597" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A597" s="10" t="s">
         <v>549</v>
       </c>
@@ -17360,7 +17461,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="120">
+    <row r="598" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A598" s="10" t="s">
         <v>236</v>
       </c>
@@ -17387,7 +17488,7 @@
       </c>
       <c r="I598" s="33"/>
     </row>
-    <row r="599" spans="1:9" ht="30">
+    <row r="599" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="10" t="s">
         <v>345</v>
       </c>
@@ -17404,7 +17505,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="60">
+    <row r="600" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A600" s="10" t="s">
         <v>347</v>
       </c>
@@ -17421,7 +17522,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="601" spans="1:9" ht="30">
+    <row r="601" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A601" s="10" t="s">
         <v>343</v>
       </c>
@@ -17438,7 +17539,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="60">
+    <row r="602" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A602" s="10" t="s">
         <v>351</v>
       </c>
@@ -17455,7 +17556,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="30">
+    <row r="603" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="10" t="s">
         <v>341</v>
       </c>
@@ -17472,7 +17573,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="604" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="604" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A604" s="10" t="s">
         <v>349</v>
       </c>
@@ -17489,7 +17590,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="605" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="605" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="10" t="s">
         <v>408</v>
       </c>
@@ -17506,7 +17607,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="606" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="606" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A606" s="10" t="s">
         <v>353</v>
       </c>
@@ -17520,7 +17621,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="607" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="607" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A607" s="10" t="s">
         <v>392</v>
       </c>
@@ -17540,7 +17641,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="608" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="608" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A608" s="10" t="s">
         <v>317</v>
       </c>
@@ -17554,7 +17655,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="609" spans="1:4" s="4" customFormat="1" ht="105">
+    <row r="609" spans="1:4" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A609" s="10" t="s">
         <v>262</v>
       </c>
@@ -17568,7 +17669,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="610" spans="1:4" s="4" customFormat="1" ht="135">
+    <row r="610" spans="1:4" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A610" s="10" t="s">
         <v>264</v>
       </c>
@@ -17582,7 +17683,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="611" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="611" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A611" s="10" t="s">
         <v>599</v>
       </c>
@@ -17596,7 +17697,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="612" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="612" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="10" t="s">
         <v>142</v>
       </c>
@@ -17610,7 +17711,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="613" spans="1:4" s="4" customFormat="1" ht="120">
+    <row r="613" spans="1:4" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A613" s="10" t="s">
         <v>786</v>
       </c>
@@ -17624,7 +17725,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="614" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="614" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A614" s="10" t="s">
         <v>706</v>
       </c>
@@ -17638,7 +17739,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="615" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="615" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A615" s="10" t="s">
         <v>390</v>
       </c>
@@ -17652,7 +17753,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="616" spans="1:4" s="4" customFormat="1" ht="135">
+    <row r="616" spans="1:4" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A616" s="10" t="s">
         <v>287</v>
       </c>
@@ -17666,7 +17767,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="617" spans="1:4" s="4" customFormat="1" ht="135">
+    <row r="617" spans="1:4" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A617" s="10" t="s">
         <v>289</v>
       </c>
@@ -17680,7 +17781,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="618" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="618" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A618" s="10" t="s">
         <v>3</v>
       </c>
@@ -17694,7 +17795,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="619" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="619" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="10" t="s">
         <v>319</v>
       </c>
@@ -17708,7 +17809,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="620" spans="1:4" s="4" customFormat="1" ht="105">
+    <row r="620" spans="1:4" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A620" s="10" t="s">
         <v>17</v>
       </c>
@@ -17722,7 +17823,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="621" spans="1:4" s="4" customFormat="1" ht="135">
+    <row r="621" spans="1:4" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A621" s="10" t="s">
         <v>281</v>
       </c>
@@ -17736,7 +17837,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="622" spans="1:4" s="4" customFormat="1" ht="135">
+    <row r="622" spans="1:4" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A622" s="10" t="s">
         <v>283</v>
       </c>
@@ -17750,7 +17851,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="623" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="623" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A623" s="10" t="s">
         <v>144</v>
       </c>
@@ -17764,7 +17865,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="624" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="624" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A624" s="10" t="s">
         <v>321</v>
       </c>
@@ -17778,7 +17879,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="625" spans="1:4" s="4" customFormat="1" ht="105">
+    <row r="625" spans="1:4" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A625" s="10" t="s">
         <v>24</v>
       </c>
@@ -17792,7 +17893,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="626" spans="1:4" s="4" customFormat="1" ht="135">
+    <row r="626" spans="1:4" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A626" s="10" t="s">
         <v>291</v>
       </c>
@@ -17806,7 +17907,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="627" spans="1:4" s="4" customFormat="1" ht="135">
+    <row r="627" spans="1:4" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A627" s="10" t="s">
         <v>293</v>
       </c>
@@ -17820,7 +17921,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="628" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="628" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A628" s="10" t="s">
         <v>44</v>
       </c>
@@ -17834,7 +17935,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="629" spans="1:4" s="4" customFormat="1" ht="105">
+    <row r="629" spans="1:4" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A629" s="10" t="s">
         <v>4</v>
       </c>
@@ -17848,7 +17949,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="630" spans="1:4" s="4" customFormat="1" ht="120">
+    <row r="630" spans="1:4" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A630" s="10" t="s">
         <v>255</v>
       </c>
@@ -17862,7 +17963,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="631" spans="1:4" s="4" customFormat="1" ht="135">
+    <row r="631" spans="1:4" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A631" s="10" t="s">
         <v>257</v>
       </c>
@@ -17876,7 +17977,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="632" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="632" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="10" t="s">
         <v>926</v>
       </c>
@@ -17890,7 +17991,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="633" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="633" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A633" s="10" t="s">
         <v>848</v>
       </c>
@@ -17904,7 +18005,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="634" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="634" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A634" s="10" t="s">
         <v>1065</v>
       </c>
@@ -17918,7 +18019,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="635" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="635" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A635" s="10" t="s">
         <v>1025</v>
       </c>
@@ -17932,7 +18033,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="636" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="636" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A636" s="10" t="s">
         <v>912</v>
       </c>
@@ -17946,7 +18047,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="637" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="637" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A637" s="10" t="s">
         <v>1033</v>
       </c>
@@ -17960,7 +18061,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="638" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="638" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A638" s="10" t="s">
         <v>913</v>
       </c>
@@ -17974,7 +18075,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="639" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="639" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A639" s="10" t="s">
         <v>944</v>
       </c>
@@ -17988,7 +18089,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="640" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="640" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A640" s="10" t="s">
         <v>943</v>
       </c>
@@ -18002,7 +18103,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="641" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="641" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="10" t="s">
         <v>942</v>
       </c>
@@ -18016,7 +18117,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="642" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="642" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="10" t="s">
         <v>968</v>
       </c>
@@ -18030,7 +18131,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="643" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="643" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A643" s="10" t="s">
         <v>960</v>
       </c>
@@ -18044,7 +18145,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="644" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="644" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A644" s="10" t="s">
         <v>1053</v>
       </c>
@@ -18058,7 +18159,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="645" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="645" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="10" t="s">
         <v>878</v>
       </c>
@@ -18072,7 +18173,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="646" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="646" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="10" t="s">
         <v>1135</v>
       </c>
@@ -18086,7 +18187,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="647" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="647" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A647" s="10" t="s">
         <v>1106</v>
       </c>
@@ -18100,7 +18201,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="648" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="648" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A648" s="10" t="s">
         <v>959</v>
       </c>
@@ -18114,7 +18215,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="649" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="649" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A649" s="10" t="s">
         <v>805</v>
       </c>
@@ -18128,7 +18229,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="650" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="650" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="10" t="s">
         <v>934</v>
       </c>
@@ -18142,7 +18243,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="651" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="651" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A651" s="10" t="s">
         <v>813</v>
       </c>
@@ -18156,7 +18257,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="652" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="652" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" s="10" t="s">
         <v>879</v>
       </c>
@@ -18170,7 +18271,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="653" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="653" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A653" s="10" t="s">
         <v>935</v>
       </c>
@@ -18184,7 +18285,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="654" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="654" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="10" t="s">
         <v>817</v>
       </c>
@@ -18198,7 +18299,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="655" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="655" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A655" s="10" t="s">
         <v>830</v>
       </c>
@@ -18212,7 +18313,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="656" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="656" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A656" s="10" t="s">
         <v>806</v>
       </c>
@@ -18226,7 +18327,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="657" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="657" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A657" s="10" t="s">
         <v>734</v>
       </c>
@@ -18240,7 +18341,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="658" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="658" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A658" s="10" t="s">
         <v>740</v>
       </c>
@@ -18254,7 +18355,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="659" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="659" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A659" s="10" t="s">
         <v>737</v>
       </c>
@@ -18268,7 +18369,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="660" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="660" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A660" s="10" t="s">
         <v>735</v>
       </c>
@@ -18282,7 +18383,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="661" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="661" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A661" s="10" t="s">
         <v>736</v>
       </c>
@@ -18296,7 +18397,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="662" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="662" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A662" s="10" t="s">
         <v>747</v>
       </c>
@@ -18310,7 +18411,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="663" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="663" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A663" s="10" t="s">
         <v>746</v>
       </c>
@@ -18324,7 +18425,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="664" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="664" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A664" s="10" t="s">
         <v>745</v>
       </c>
@@ -18338,7 +18439,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="665" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="665" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A665" s="10" t="s">
         <v>179</v>
       </c>
@@ -18352,7 +18453,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="666" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="666" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A666" s="10" t="s">
         <v>169</v>
       </c>
@@ -18373,7 +18474,7 @@
       <c r="H666" s="33"/>
       <c r="I666" s="33"/>
     </row>
-    <row r="667" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="667" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A667" s="10" t="s">
         <v>167</v>
       </c>
@@ -18387,7 +18488,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="668" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="668" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A668" s="10" t="s">
         <v>181</v>
       </c>
@@ -18401,7 +18502,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="669" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="669" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="10" t="s">
         <v>175</v>
       </c>
@@ -18415,7 +18516,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="670" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="670" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A670" s="10" t="s">
         <v>177</v>
       </c>
@@ -18429,7 +18530,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="671" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="671" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A671" s="10" t="s">
         <v>723</v>
       </c>
@@ -18443,7 +18544,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="672" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="672" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="10" t="s">
         <v>718</v>
       </c>
@@ -18464,7 +18565,7 @@
       <c r="H672" s="33"/>
       <c r="I672" s="33"/>
     </row>
-    <row r="673" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="673" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A673" s="10" t="s">
         <v>725</v>
       </c>
@@ -18478,7 +18579,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="674" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="674" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A674" s="10" t="s">
         <v>720</v>
       </c>
@@ -18492,7 +18593,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="675" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="675" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="10" t="s">
         <v>722</v>
       </c>
@@ -18513,7 +18614,7 @@
       <c r="H675" s="33"/>
       <c r="I675" s="33"/>
     </row>
-    <row r="676" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="676" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A676" s="10" t="s">
         <v>364</v>
       </c>
@@ -18527,7 +18628,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="677" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="677" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A677" s="10" t="s">
         <v>358</v>
       </c>
@@ -18544,7 +18645,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="678" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="678" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A678" s="10" t="s">
         <v>366</v>
       </c>
@@ -18561,7 +18662,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="679" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="679" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A679" s="10" t="s">
         <v>356</v>
       </c>
@@ -18582,7 +18683,7 @@
       <c r="H679" s="33"/>
       <c r="I679" s="33"/>
     </row>
-    <row r="680" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="680" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A680" s="10" t="s">
         <v>363</v>
       </c>
@@ -18600,7 +18701,7 @@
       <c r="H680" s="33"/>
       <c r="I680" s="33"/>
     </row>
-    <row r="681" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="681" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="10" t="s">
         <v>217</v>
       </c>
@@ -18617,7 +18718,7 @@
       <c r="F681" s="32"/>
       <c r="I681" s="33"/>
     </row>
-    <row r="682" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="682" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="10" t="s">
         <v>211</v>
       </c>
@@ -18634,7 +18735,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="683" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="683" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A683" s="10" t="s">
         <v>219</v>
       </c>
@@ -18648,7 +18749,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="684" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="684" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="10" t="s">
         <v>214</v>
       </c>
@@ -18662,7 +18763,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="685" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="685" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="10" t="s">
         <v>337</v>
       </c>
@@ -18676,7 +18777,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="686" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="686" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A686" s="10" t="s">
         <v>328</v>
       </c>
@@ -18693,7 +18794,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="687" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="687" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A687" s="10" t="s">
         <v>339</v>
       </c>
@@ -18707,7 +18808,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="688" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="688" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A688" s="10" t="s">
         <v>336</v>
       </c>
@@ -18721,7 +18822,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="689" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="689" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A689" s="10" t="s">
         <v>768</v>
       </c>
@@ -18735,7 +18836,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="690" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="690" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="10" t="s">
         <v>790</v>
       </c>
@@ -18749,7 +18850,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="691" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="691" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="10" t="s">
         <v>770</v>
       </c>
@@ -18763,7 +18864,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="692" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="692" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="10" t="s">
         <v>763</v>
       </c>
@@ -18777,7 +18878,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="693" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="693" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A693" s="10" t="s">
         <v>604</v>
       </c>
@@ -18791,7 +18892,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="694" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="694" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A694" s="10" t="s">
         <v>601</v>
       </c>
@@ -18805,7 +18906,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="695" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="695" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A695" s="10" t="s">
         <v>606</v>
       </c>
@@ -18819,7 +18920,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="696" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="696" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="10" t="s">
         <v>603</v>
       </c>
@@ -18833,7 +18934,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="697" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="697" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A697" s="10" t="s">
         <v>458</v>
       </c>
@@ -18847,7 +18948,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="698" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="698" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A698" s="10" t="s">
         <v>441</v>
       </c>
@@ -18861,7 +18962,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="699" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="699" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A699" s="10" t="s">
         <v>460</v>
       </c>
@@ -18875,7 +18976,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="700" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="700" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="10" t="s">
         <v>439</v>
       </c>
@@ -18889,7 +18990,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="701" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="701" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A701" s="10" t="s">
         <v>434</v>
       </c>
@@ -18903,7 +19004,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="702" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="702" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A702" s="10" t="s">
         <v>436</v>
       </c>
@@ -18917,7 +19018,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="703" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="703" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A703" s="10" t="s">
         <v>508</v>
       </c>
@@ -18931,7 +19032,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="704" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="704" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A704" s="10" t="s">
         <v>510</v>
       </c>
@@ -18945,7 +19046,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="705" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="705" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A705" s="10" t="s">
         <v>506</v>
       </c>
@@ -18959,7 +19060,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="706" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="706" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A706" s="10" t="s">
         <v>504</v>
       </c>
@@ -18973,7 +19074,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="707" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="707" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A707" s="10" t="s">
         <v>512</v>
       </c>
@@ -18987,7 +19088,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="708" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="708" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A708" s="10" t="s">
         <v>449</v>
       </c>
@@ -19001,7 +19102,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="709" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="709" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A709" s="10" t="s">
         <v>515</v>
       </c>
@@ -19015,7 +19116,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="710" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="710" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A710" s="10" t="s">
         <v>517</v>
       </c>
@@ -19029,7 +19130,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="711" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="711" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A711" s="10" t="s">
         <v>541</v>
       </c>
@@ -19043,7 +19144,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="712" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="712" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A712" s="10" t="s">
         <v>543</v>
       </c>
@@ -19057,7 +19158,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="713" spans="1:4" s="5" customFormat="1" ht="60">
+    <row r="713" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A713" s="10" t="s">
         <v>455</v>
       </c>
@@ -19071,7 +19172,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="714" spans="1:4" s="5" customFormat="1" ht="60">
+    <row r="714" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A714" s="10" t="s">
         <v>215</v>
       </c>
@@ -19085,7 +19186,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="715" spans="1:4" s="5" customFormat="1" ht="60">
+    <row r="715" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A715" s="10" t="s">
         <v>451</v>
       </c>
@@ -19099,7 +19200,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="716" spans="1:4" s="5" customFormat="1" ht="60">
+    <row r="716" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A716" s="10" t="s">
         <v>361</v>
       </c>
@@ -19113,7 +19214,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="717" spans="1:4" s="5" customFormat="1" ht="60">
+    <row r="717" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A717" s="10" t="s">
         <v>453</v>
       </c>
@@ -19127,7 +19228,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="718" spans="1:4" s="5" customFormat="1" ht="45">
+    <row r="718" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A718" s="10" t="s">
         <v>360</v>
       </c>
@@ -19141,7 +19242,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="719" spans="1:4" s="5" customFormat="1" ht="45">
+    <row r="719" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A719" s="10" t="s">
         <v>332</v>
       </c>
@@ -19155,7 +19256,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="720" spans="1:4" s="5" customFormat="1" ht="45">
+    <row r="720" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A720" s="10" t="s">
         <v>330</v>
       </c>
@@ -19169,7 +19270,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="721" spans="1:4" s="5" customFormat="1" ht="30">
+    <row r="721" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A721" s="10" t="s">
         <v>404</v>
       </c>
@@ -19183,7 +19284,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="722" spans="1:4" s="5" customFormat="1" ht="45">
+    <row r="722" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A722" s="10" t="s">
         <v>400</v>
       </c>
@@ -19197,7 +19298,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="723" spans="1:4" s="5" customFormat="1" ht="45">
+    <row r="723" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A723" s="10" t="s">
         <v>794</v>
       </c>
@@ -19211,7 +19312,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="724" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="724" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A724" s="10" t="s">
         <v>766</v>
       </c>
@@ -19225,7 +19326,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="725" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="725" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A725" s="10" t="s">
         <v>764</v>
       </c>
@@ -19239,7 +19340,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="726" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="726" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A726" s="10" t="s">
         <v>762</v>
       </c>
@@ -19253,7 +19354,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="727" spans="1:4" s="4" customFormat="1" ht="90">
+    <row r="727" spans="1:4" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A727" s="10" t="s">
         <v>788</v>
       </c>
@@ -19267,7 +19368,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="728" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="728" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A728" s="10" t="s">
         <v>415</v>
       </c>
@@ -19281,7 +19382,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="729" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="729" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="10" t="s">
         <v>982</v>
       </c>
@@ -19295,7 +19396,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="730" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="730" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="10" t="s">
         <v>983</v>
       </c>
@@ -19309,7 +19410,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="731" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="731" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A731" s="10" t="s">
         <v>1016</v>
       </c>
@@ -19323,7 +19424,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="732" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="732" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="10" t="s">
         <v>1017</v>
       </c>
@@ -19337,7 +19438,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="733" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="733" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="10" t="s">
         <v>1015</v>
       </c>
@@ -19351,7 +19452,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="734" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="734" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A734" s="10" t="s">
         <v>1014</v>
       </c>
@@ -19365,7 +19466,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="735" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="735" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A735" s="10" t="s">
         <v>1018</v>
       </c>
@@ -19379,7 +19480,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="736" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="736" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A736" s="10" t="s">
         <v>988</v>
       </c>
@@ -19393,7 +19494,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="737" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="737" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A737" s="10" t="s">
         <v>1019</v>
       </c>
@@ -19407,7 +19508,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="738" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="738" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A738" s="10" t="s">
         <v>1020</v>
       </c>
@@ -19421,7 +19522,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="739" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="739" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A739" s="10" t="s">
         <v>1030</v>
       </c>
@@ -19435,7 +19536,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="740" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="740" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A740" s="10" t="s">
         <v>1031</v>
       </c>
@@ -19449,7 +19550,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="741" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="741" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A741" s="10" t="s">
         <v>991</v>
       </c>
@@ -19463,7 +19564,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="742" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="742" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A742" s="10" t="s">
         <v>903</v>
       </c>
@@ -19477,7 +19578,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="743" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="743" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A743" s="10" t="s">
         <v>989</v>
       </c>
@@ -19491,7 +19592,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="744" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="744" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A744" s="10" t="s">
         <v>946</v>
       </c>
@@ -19505,7 +19606,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="745" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="745" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A745" s="10" t="s">
         <v>990</v>
       </c>
@@ -19519,7 +19620,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="746" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="746" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A746" s="10" t="s">
         <v>940</v>
       </c>
@@ -19533,7 +19634,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="747" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="747" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A747" s="10" t="s">
         <v>939</v>
       </c>
@@ -19547,7 +19648,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="748" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="748" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A748" s="10" t="s">
         <v>966</v>
       </c>
@@ -19561,7 +19662,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="749" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="749" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A749" s="10" t="s">
         <v>964</v>
       </c>
@@ -19575,7 +19676,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="750" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="750" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A750" s="10" t="s">
         <v>1137</v>
       </c>
@@ -19589,7 +19690,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="751" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="751" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A751" s="10" t="s">
         <v>1127</v>
       </c>
@@ -19603,7 +19704,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="752" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="752" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A752" s="10" t="s">
         <v>1126</v>
       </c>
@@ -19617,7 +19718,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="753" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="753" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A753" s="10" t="s">
         <v>1125</v>
       </c>
@@ -19631,7 +19732,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="754" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="754" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A754" s="10" t="s">
         <v>1136</v>
       </c>
@@ -19645,7 +19746,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="755" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="755" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A755" s="10" t="s">
         <v>972</v>
       </c>
@@ -19659,7 +19760,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="756" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="756" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A756" s="10" t="s">
         <v>333</v>
       </c>
@@ -19673,7 +19774,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="757" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="757" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A757" s="10" t="s">
         <v>300</v>
       </c>
@@ -19687,7 +19788,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="758" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="758" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A758" s="10" t="s">
         <v>183</v>
       </c>
@@ -19701,7 +19802,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="759" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="759" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A759" s="10" t="s">
         <v>608</v>
       </c>
@@ -19715,7 +19816,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="760" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="760" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A760" s="10" t="s">
         <v>582</v>
       </c>
@@ -19729,7 +19830,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="761" spans="1:9" s="4" customFormat="1" ht="105">
+    <row r="761" spans="1:9" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A761" s="10" t="s">
         <v>1800</v>
       </c>
@@ -19743,7 +19844,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="762" spans="1:9" s="4" customFormat="1" ht="135">
+    <row r="762" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A762" s="10" t="s">
         <v>166</v>
       </c>
@@ -19757,7 +19858,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="763" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="763" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="10" t="s">
         <v>398</v>
       </c>
@@ -19786,7 +19887,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="764" spans="1:9" s="4" customFormat="1">
+    <row r="764" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A764" s="10" t="s">
         <v>298</v>
       </c>
@@ -19800,7 +19901,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="765" spans="1:9" s="4" customFormat="1" ht="285">
+    <row r="765" spans="1:9" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A765" s="10" t="s">
         <v>1805</v>
       </c>
@@ -19814,7 +19915,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="766" spans="1:9" s="4" customFormat="1" ht="285">
+    <row r="766" spans="1:9" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A766" s="10" t="s">
         <v>1806</v>
       </c>
@@ -19828,7 +19929,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="767" spans="1:9" s="4" customFormat="1" ht="285">
+    <row r="767" spans="1:9" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A767" s="10" t="s">
         <v>1807</v>
       </c>
@@ -19842,7 +19943,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="768" spans="1:9" s="4" customFormat="1" ht="285">
+    <row r="768" spans="1:9" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A768" s="10" t="s">
         <v>1808</v>
       </c>
@@ -19856,7 +19957,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="769" spans="1:4" s="4" customFormat="1" ht="285">
+    <row r="769" spans="1:4" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A769" s="10" t="s">
         <v>1809</v>
       </c>
@@ -19870,7 +19971,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="770" spans="1:4" s="4" customFormat="1" ht="285">
+    <row r="770" spans="1:4" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A770" s="10" t="s">
         <v>1810</v>
       </c>
@@ -19884,7 +19985,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="771" spans="1:4" s="4" customFormat="1" ht="285">
+    <row r="771" spans="1:4" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A771" s="10" t="s">
         <v>1811</v>
       </c>
@@ -19898,7 +19999,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="772" spans="1:4" s="4" customFormat="1" ht="285">
+    <row r="772" spans="1:4" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A772" s="10" t="s">
         <v>1812</v>
       </c>
@@ -19912,7 +20013,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="773" spans="1:4" s="4" customFormat="1" ht="285">
+    <row r="773" spans="1:4" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A773" s="10" t="s">
         <v>1813</v>
       </c>
@@ -19926,7 +20027,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="774" spans="1:4" s="4" customFormat="1" ht="285">
+    <row r="774" spans="1:4" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A774" s="10" t="s">
         <v>1814</v>
       </c>
@@ -19940,7 +20041,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="775" spans="1:4" s="4" customFormat="1" ht="285">
+    <row r="775" spans="1:4" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A775" s="10" t="s">
         <v>1815</v>
       </c>
@@ -19954,7 +20055,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="776" spans="1:4" s="4" customFormat="1" ht="285">
+    <row r="776" spans="1:4" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A776" s="10" t="s">
         <v>1816</v>
       </c>
@@ -19968,7 +20069,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="777" spans="1:4" s="4" customFormat="1" ht="285">
+    <row r="777" spans="1:4" s="4" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A777" s="10" t="s">
         <v>1817</v>
       </c>
@@ -19982,7 +20083,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="778" spans="1:4" s="5" customFormat="1" ht="30">
+    <row r="778" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A778" s="10" t="s">
         <v>250</v>
       </c>
@@ -19996,7 +20097,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="779" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="779" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A779" s="10" t="s">
         <v>32</v>
       </c>
@@ -20010,7 +20111,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="780" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="780" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A780" s="10" t="s">
         <v>633</v>
       </c>
@@ -20024,7 +20125,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="781" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="781" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A781" s="10" t="s">
         <v>631</v>
       </c>
@@ -20038,7 +20139,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="782" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="782" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A782" s="10" t="s">
         <v>462</v>
       </c>
@@ -20052,7 +20153,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="783" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="783" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A783" s="10" t="s">
         <v>796</v>
       </c>
@@ -20066,7 +20167,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="784" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="784" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A784" s="10" t="s">
         <v>567</v>
       </c>
@@ -20080,7 +20181,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="785" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="785" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A785" s="10" t="s">
         <v>610</v>
       </c>
@@ -20094,7 +20195,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="786" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="786" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A786" s="10" t="s">
         <v>79</v>
       </c>
@@ -20108,7 +20209,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="787" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="787" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A787" s="10" t="s">
         <v>325</v>
       </c>
@@ -20122,7 +20223,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="788" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="788" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A788" s="10" t="s">
         <v>571</v>
       </c>
@@ -20136,7 +20237,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="789" spans="1:9" s="4" customFormat="1" ht="360">
+    <row r="789" spans="1:9" s="4" customFormat="1" ht="360" x14ac:dyDescent="0.25">
       <c r="A789" s="10" t="s">
         <v>375</v>
       </c>
@@ -20157,7 +20258,7 @@
       <c r="H789" s="33"/>
       <c r="I789" s="33"/>
     </row>
-    <row r="790" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="790" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A790" s="10" t="s">
         <v>531</v>
       </c>
@@ -20171,7 +20272,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="791" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="791" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A791" s="10" t="s">
         <v>532</v>
       </c>
@@ -20185,7 +20286,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="792" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="792" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A792" s="10" t="s">
         <v>305</v>
       </c>
@@ -20199,7 +20300,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="793" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="793" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A793" s="10" t="s">
         <v>558</v>
       </c>
@@ -20213,7 +20314,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="794" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="794" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A794" s="10" t="s">
         <v>213</v>
       </c>
@@ -20227,7 +20328,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="795" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="795" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A795" s="10" t="s">
         <v>925</v>
       </c>
@@ -20241,7 +20342,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="796" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="796" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A796" s="10" t="s">
         <v>924</v>
       </c>
@@ -20255,7 +20356,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="797" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="797" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A797" s="10" t="s">
         <v>894</v>
       </c>
@@ -20269,7 +20370,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="798" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="798" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A798" s="10" t="s">
         <v>1054</v>
       </c>
@@ -20283,7 +20384,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="799" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="799" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A799" s="10" t="s">
         <v>1044</v>
       </c>
@@ -20297,7 +20398,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="800" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="800" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A800" s="10" t="s">
         <v>1833</v>
       </c>
@@ -20311,7 +20412,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="801" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="801" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A801" s="10" t="s">
         <v>891</v>
       </c>
@@ -20325,7 +20426,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="802" spans="1:4" s="5" customFormat="1" ht="30">
+    <row r="802" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A802" s="10" t="s">
         <v>963</v>
       </c>
@@ -20339,7 +20440,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="803" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="803" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A803" s="10" t="s">
         <v>1834</v>
       </c>
@@ -20353,7 +20454,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="804" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="804" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A804" s="10" t="s">
         <v>1835</v>
       </c>
@@ -20367,7 +20468,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="805" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="805" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A805" s="10" t="s">
         <v>1836</v>
       </c>
@@ -20381,7 +20482,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="806" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="806" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A806" s="10" t="s">
         <v>1837</v>
       </c>
@@ -20395,7 +20496,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="807" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="807" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A807" s="10" t="s">
         <v>1838</v>
       </c>
@@ -20409,7 +20510,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="808" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="808" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A808" s="10" t="s">
         <v>1839</v>
       </c>
@@ -20423,7 +20524,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="809" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="809" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A809" s="10" t="s">
         <v>1840</v>
       </c>
@@ -20437,7 +20538,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="810" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="810" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A810" s="10" t="s">
         <v>1841</v>
       </c>
@@ -20451,7 +20552,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="811" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="811" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A811" s="10" t="s">
         <v>1842</v>
       </c>
@@ -20465,7 +20566,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="812" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="812" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A812" s="10" t="s">
         <v>1843</v>
       </c>
@@ -20479,7 +20580,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="813" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="813" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A813" s="10" t="s">
         <v>1844</v>
       </c>
@@ -20493,7 +20594,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="814" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="814" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A814" s="10" t="s">
         <v>1845</v>
       </c>
@@ -20507,7 +20608,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="815" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="815" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A815" s="10" t="s">
         <v>1846</v>
       </c>
@@ -20521,7 +20622,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="816" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="816" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A816" s="10" t="s">
         <v>920</v>
       </c>
@@ -20535,7 +20636,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="817" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="817" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A817" s="10" t="s">
         <v>822</v>
       </c>
@@ -20549,7 +20650,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="818" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="818" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A818" s="10" t="s">
         <v>1067</v>
       </c>
@@ -20563,7 +20664,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="819" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="819" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A819" s="10" t="s">
         <v>1066</v>
       </c>
@@ -20577,7 +20678,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="820" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="820" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A820" s="10" t="s">
         <v>993</v>
       </c>
@@ -20591,7 +20692,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="821" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="821" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A821" s="10" t="s">
         <v>1138</v>
       </c>
@@ -20605,7 +20706,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="822" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="822" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A822" s="10" t="s">
         <v>1038</v>
       </c>
@@ -20619,7 +20720,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="823" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="823" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A823" s="10" t="s">
         <v>1055</v>
       </c>
@@ -20633,7 +20734,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="824" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="824" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A824" s="10" t="s">
         <v>847</v>
       </c>
@@ -20647,7 +20748,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="825" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="825" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A825" s="10" t="s">
         <v>937</v>
       </c>
@@ -20661,7 +20762,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="826" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="826" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A826" s="10" t="s">
         <v>1039</v>
       </c>
@@ -20675,7 +20776,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="827" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="827" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A827" s="10" t="s">
         <v>951</v>
       </c>
@@ -20689,7 +20790,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="828" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="828" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A828" s="10" t="s">
         <v>928</v>
       </c>
@@ -20703,7 +20804,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="829" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="829" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A829" s="10" t="s">
         <v>1037</v>
       </c>
@@ -20717,7 +20818,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="830" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="830" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A830" s="10" t="s">
         <v>902</v>
       </c>
@@ -20731,7 +20832,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="831" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="831" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A831" s="10" t="s">
         <v>658</v>
       </c>
@@ -20743,7 +20844,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="832" spans="1:9" s="4" customFormat="1" ht="60">
+    <row r="832" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A832" s="10" t="s">
         <v>1901</v>
       </c>
@@ -20762,7 +20863,7 @@
       <c r="H832" s="33"/>
       <c r="I832" s="33"/>
     </row>
-    <row r="833" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="833" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A833" s="10" t="s">
         <v>655</v>
       </c>
@@ -20789,7 +20890,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="834" spans="1:9" s="4" customFormat="1">
+    <row r="834" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A834" s="10" t="s">
         <v>660</v>
       </c>
@@ -20801,7 +20902,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="835" spans="1:9" s="4" customFormat="1">
+    <row r="835" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A835" s="10" t="s">
         <v>653</v>
       </c>
@@ -20813,7 +20914,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="836" spans="1:9" s="4" customFormat="1">
+    <row r="836" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A836" s="10" t="s">
         <v>659</v>
       </c>
@@ -20832,7 +20933,7 @@
       <c r="H836" s="33"/>
       <c r="I836" s="33"/>
     </row>
-    <row r="837" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="837" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A837" s="13" t="s">
         <v>1866</v>
       </c>
@@ -20846,7 +20947,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="838" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="838" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A838" s="13" t="s">
         <v>1902</v>
       </c>
@@ -20860,7 +20961,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="839" spans="1:9" ht="30">
+    <row r="839" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A839" s="13" t="s">
         <v>1865</v>
       </c>
@@ -20874,7 +20975,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="840" spans="1:9" ht="30">
+    <row r="840" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A840" s="13" t="s">
         <v>1868</v>
       </c>
@@ -20888,7 +20989,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="841" spans="1:9" ht="30">
+    <row r="841" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A841" s="13" t="s">
         <v>1864</v>
       </c>
@@ -20902,7 +21003,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="842" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="842" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A842" s="13" t="s">
         <v>1867</v>
       </c>
@@ -20916,7 +21017,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="843" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="843" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A843" s="14" t="s">
         <v>1870</v>
       </c>
@@ -20928,7 +21029,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="844" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="844" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A844" s="14" t="s">
         <v>1961</v>
       </c>
@@ -20940,7 +21041,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="845" spans="1:9" s="4" customFormat="1" ht="45">
+    <row r="845" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A845" s="14" t="s">
         <v>1962</v>
       </c>
@@ -20952,7 +21053,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="846" spans="1:9" s="4" customFormat="1" ht="30">
+    <row r="846" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A846" s="14" t="s">
         <v>1963</v>
       </c>
@@ -20964,7 +21065,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="847" spans="1:9" ht="30">
+    <row r="847" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A847" s="14" t="s">
         <v>1964</v>
       </c>
@@ -20976,7 +21077,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="848" spans="1:9" ht="45">
+    <row r="848" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A848" s="14" t="s">
         <v>1965</v>
       </c>
@@ -20988,7 +21089,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="30">
+    <row r="849" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A849" s="14" t="s">
         <v>1871</v>
       </c>
@@ -21000,7 +21101,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="850" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="850" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A850" s="14" t="s">
         <v>1966</v>
       </c>
@@ -21012,7 +21113,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="851" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="851" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A851" s="14" t="s">
         <v>1967</v>
       </c>
@@ -21024,7 +21125,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="852" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="852" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A852" s="14" t="s">
         <v>1968</v>
       </c>
@@ -21036,7 +21137,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="30">
+    <row r="853" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A853" s="14" t="s">
         <v>1969</v>
       </c>
@@ -21048,7 +21149,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="854" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="854" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A854" s="14" t="s">
         <v>1970</v>
       </c>
@@ -21060,7 +21161,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="855" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="855" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A855" s="14" t="s">
         <v>1872</v>
       </c>
@@ -21072,7 +21173,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="856" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="856" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A856" s="14" t="s">
         <v>1971</v>
       </c>
@@ -21084,7 +21185,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="857" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="857" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A857" s="14" t="s">
         <v>1972</v>
       </c>
@@ -21096,7 +21197,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="858" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="858" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A858" s="14" t="s">
         <v>1973</v>
       </c>
@@ -21108,7 +21209,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="859" spans="1:4" ht="30">
+    <row r="859" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A859" s="14" t="s">
         <v>1974</v>
       </c>
@@ -21120,7 +21221,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="860" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="860" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A860" s="16" t="s">
         <v>1975</v>
       </c>
@@ -21132,7 +21233,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="861" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="861" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A861" s="16" t="s">
         <v>1873</v>
       </c>
@@ -21144,7 +21245,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="862" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="862" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A862" s="11" t="s">
         <v>1976</v>
       </c>
@@ -21156,7 +21257,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="863" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="863" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A863" s="11" t="s">
         <v>1977</v>
       </c>
@@ -21168,7 +21269,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="864" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="864" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A864" s="11" t="s">
         <v>1978</v>
       </c>
@@ -21180,7 +21281,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="865" spans="1:4" ht="30">
+    <row r="865" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A865" s="11" t="s">
         <v>1874</v>
       </c>
@@ -21191,7 +21292,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="866" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="866" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A866" s="11" t="s">
         <v>1979</v>
       </c>
@@ -21203,7 +21304,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="867" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="867" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A867" s="11" t="s">
         <v>1980</v>
       </c>
@@ -21215,7 +21316,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="868" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="868" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A868" s="11" t="s">
         <v>1981</v>
       </c>
@@ -21227,7 +21328,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="869" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="869" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A869" s="11" t="s">
         <v>1875</v>
       </c>
@@ -21239,7 +21340,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="870" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="870" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A870" s="11" t="s">
         <v>1982</v>
       </c>
@@ -21251,7 +21352,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="871" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="871" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A871" s="11" t="s">
         <v>1983</v>
       </c>
@@ -21263,7 +21364,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="872" spans="1:4" s="4" customFormat="1" ht="45">
+    <row r="872" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A872" s="11" t="s">
         <v>1984</v>
       </c>
@@ -21275,7 +21376,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="873" spans="1:4" s="4" customFormat="1" ht="30">
+    <row r="873" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A873" s="11" t="s">
         <v>1876</v>
       </c>
@@ -21287,7 +21388,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="874" spans="1:4" ht="30">
+    <row r="874" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A874" s="11" t="s">
         <v>1985</v>
       </c>
@@ -21299,7 +21400,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="875" spans="1:4" ht="30">
+    <row r="875" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A875" s="11" t="s">
         <v>1986</v>
       </c>
@@ -21311,7 +21412,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="876" spans="1:4" ht="45">
+    <row r="876" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A876" s="11" t="s">
         <v>1987</v>
       </c>
@@ -21323,7 +21424,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="877" spans="1:4" ht="30">
+    <row r="877" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A877" s="11" t="s">
         <v>1877</v>
       </c>
@@ -21335,7 +21436,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="878" spans="1:4" ht="30">
+    <row r="878" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A878" s="11" t="s">
         <v>1988</v>
       </c>
@@ -21347,7 +21448,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="30">
+    <row r="879" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A879" s="11" t="s">
         <v>1989</v>
       </c>
@@ -21359,7 +21460,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="880" spans="1:4" ht="45">
+    <row r="880" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A880" s="11" t="s">
         <v>1990</v>
       </c>
@@ -21371,7 +21472,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="30">
+    <row r="881" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A881" s="11" t="s">
         <v>1878</v>
       </c>
@@ -21383,7 +21484,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="882" spans="1:4" ht="30">
+    <row r="882" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A882" s="11" t="s">
         <v>1991</v>
       </c>
@@ -21395,7 +21496,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="883" spans="1:4" ht="30">
+    <row r="883" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A883" s="11" t="s">
         <v>1992</v>
       </c>
@@ -21407,7 +21508,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="884" spans="1:4" ht="45">
+    <row r="884" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A884" s="11" t="s">
         <v>1993</v>
       </c>
@@ -21419,7 +21520,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="885" spans="1:4">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" s="11" t="s">
         <v>1879</v>
       </c>
@@ -21431,7 +21532,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="30">
+    <row r="886" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A886" s="11" t="s">
         <v>1994</v>
       </c>
@@ -21443,7 +21544,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="887" spans="1:4" ht="30">
+    <row r="887" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A887" s="11" t="s">
         <v>1995</v>
       </c>
@@ -21455,7 +21556,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="888" spans="1:4" ht="45">
+    <row r="888" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A888" s="11" t="s">
         <v>1996</v>
       </c>
@@ -21467,7 +21568,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="889" spans="1:4" ht="30">
+    <row r="889" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A889" s="11" t="s">
         <v>1880</v>
       </c>
@@ -21479,7 +21580,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="890" spans="1:4" ht="30">
+    <row r="890" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A890" s="11" t="s">
         <v>1997</v>
       </c>
@@ -21491,7 +21592,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="30">
+    <row r="891" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A891" s="11" t="s">
         <v>1998</v>
       </c>
@@ -21503,7 +21604,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="892" spans="1:4" ht="45">
+    <row r="892" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A892" s="11" t="s">
         <v>1999</v>
       </c>
@@ -21515,7 +21616,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="30">
+    <row r="893" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A893" s="11" t="s">
         <v>1881</v>
       </c>
@@ -21527,7 +21628,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="894" spans="1:4" ht="30">
+    <row r="894" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A894" s="11" t="s">
         <v>2000</v>
       </c>
@@ -21539,7 +21640,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="895" spans="1:4" ht="30">
+    <row r="895" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A895" s="11" t="s">
         <v>2001</v>
       </c>
@@ -21551,7 +21652,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="896" spans="1:4" ht="45">
+    <row r="896" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A896" s="11" t="s">
         <v>2002</v>
       </c>
@@ -21563,7 +21664,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="897" spans="1:4">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" s="11" t="s">
         <v>1892</v>
       </c>
@@ -21575,7 +21676,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="898" spans="1:4" ht="30">
+    <row r="898" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A898" s="11" t="s">
         <v>2003</v>
       </c>
@@ -21587,7 +21688,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="899" spans="1:4" ht="30">
+    <row r="899" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A899" s="11" t="s">
         <v>2004</v>
       </c>
@@ -21599,7 +21700,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="900" spans="1:4" ht="45">
+    <row r="900" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A900" s="11" t="s">
         <v>2005</v>
       </c>
@@ -21611,7 +21712,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="901" spans="1:4" ht="30">
+    <row r="901" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A901" s="11" t="s">
         <v>1882</v>
       </c>
@@ -21623,7 +21724,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="902" spans="1:4" ht="30">
+    <row r="902" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A902" s="11" t="s">
         <v>2006</v>
       </c>
@@ -21635,7 +21736,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="903" spans="1:4" ht="30">
+    <row r="903" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A903" s="11" t="s">
         <v>2007</v>
       </c>
@@ -21647,7 +21748,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="904" spans="1:4" ht="45">
+    <row r="904" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A904" s="11" t="s">
         <v>2008</v>
       </c>
@@ -21659,7 +21760,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="905" spans="1:4" ht="30">
+    <row r="905" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A905" s="11" t="s">
         <v>1893</v>
       </c>
@@ -21671,7 +21772,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="906" spans="1:4" ht="30">
+    <row r="906" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A906" s="11" t="s">
         <v>2009</v>
       </c>
@@ -21683,7 +21784,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="907" spans="1:4" ht="30">
+    <row r="907" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A907" s="11" t="s">
         <v>2010</v>
       </c>
@@ -21695,7 +21796,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="908" spans="1:4" ht="45">
+    <row r="908" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A908" s="11" t="s">
         <v>2011</v>
       </c>
@@ -21707,7 +21808,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="909" spans="1:4" ht="45">
+    <row r="909" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A909" s="11" t="s">
         <v>1883</v>
       </c>
@@ -21719,7 +21820,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="910" spans="1:4" ht="45">
+    <row r="910" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A910" s="11" t="s">
         <v>1897</v>
       </c>
@@ -21731,7 +21832,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="911" spans="1:4">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" s="11" t="s">
         <v>1869</v>
       </c>
@@ -21743,7 +21844,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="912" spans="1:4" ht="30">
+    <row r="912" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A912" s="11" t="s">
         <v>2012</v>
       </c>
@@ -21755,7 +21856,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="913" spans="1:4" ht="30">
+    <row r="913" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A913" s="11" t="s">
         <v>2013</v>
       </c>
@@ -21767,7 +21868,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="914" spans="1:4" ht="30">
+    <row r="914" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A914" s="11" t="s">
         <v>2014</v>
       </c>
@@ -21779,7 +21880,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="915" spans="1:4" ht="30">
+    <row r="915" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A915" s="11" t="s">
         <v>2015</v>
       </c>
@@ -21791,7 +21892,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="916" spans="1:4" ht="45">
+    <row r="916" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A916" s="11" t="s">
         <v>2016</v>
       </c>
@@ -21803,7 +21904,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="917" spans="1:4">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" s="11" t="s">
         <v>1898</v>
       </c>
@@ -21815,7 +21916,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="918" spans="1:4" ht="30">
+    <row r="918" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A918" s="11" t="s">
         <v>2017</v>
       </c>
@@ -21827,7 +21928,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="919" spans="1:4" ht="30">
+    <row r="919" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A919" s="11" t="s">
         <v>2018</v>
       </c>
@@ -21839,7 +21940,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="920" spans="1:4" ht="30">
+    <row r="920" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A920" s="11" t="s">
         <v>2019</v>
       </c>
@@ -21851,7 +21952,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="921" spans="1:4" ht="30">
+    <row r="921" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A921" s="11" t="s">
         <v>2020</v>
       </c>
@@ -21863,7 +21964,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="922" spans="1:4" ht="45">
+    <row r="922" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A922" s="11" t="s">
         <v>2021</v>
       </c>
@@ -21875,7 +21976,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="923" spans="1:4" ht="60">
+    <row r="923" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A923" s="11" t="s">
         <v>1923</v>
       </c>
@@ -21889,7 +21990,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="924" spans="1:4" ht="75">
+    <row r="924" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A924" s="11" t="s">
         <v>1924</v>
       </c>
@@ -21903,7 +22004,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="925" spans="1:4" ht="90">
+    <row r="925" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A925" s="11" t="s">
         <v>1925</v>
       </c>
@@ -21917,7 +22018,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="926" spans="1:4" ht="75">
+    <row r="926" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A926" s="11" t="s">
         <v>1928</v>
       </c>
@@ -21931,7 +22032,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="927" spans="1:4" ht="90">
+    <row r="927" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A927" s="11" t="s">
         <v>1929</v>
       </c>
@@ -21945,7 +22046,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="928" spans="1:4" ht="105">
+    <row r="928" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A928" s="11" t="s">
         <v>1930</v>
       </c>
@@ -21959,7 +22060,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="929" spans="1:9" ht="60">
+    <row r="929" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A929" s="11" t="s">
         <v>1955</v>
       </c>
@@ -21973,7 +22074,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="930" spans="1:9" ht="105">
+    <row r="930" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A930" s="11" t="s">
         <v>1932</v>
       </c>
@@ -21987,7 +22088,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="931" spans="1:9" ht="60">
+    <row r="931" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A931" s="11" t="s">
         <v>1957</v>
       </c>
@@ -22001,7 +22102,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="932" spans="1:9" ht="105">
+    <row r="932" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A932" s="11" t="s">
         <v>1937</v>
       </c>
@@ -22015,7 +22116,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="933" spans="1:9" ht="60">
+    <row r="933" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A933" s="11" t="s">
         <v>1959</v>
       </c>
@@ -22029,7 +22130,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="934" spans="1:9" ht="105">
+    <row r="934" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A934" s="11" t="s">
         <v>1939</v>
       </c>
@@ -22043,22 +22144,132 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="937" spans="1:9" ht="61.5" customHeight="1">
-      <c r="A937" s="35" t="s">
+    <row r="935" spans="1:4" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A935" s="11" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B935" s="11" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C935" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D935" s="18" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A936" s="11" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B936" s="11" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C936" s="20"/>
+      <c r="D936" s="18" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A937" s="11" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B937" s="11" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C937" s="20"/>
+      <c r="D937" s="18" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A938" s="11" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B938" s="11" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C938" s="20"/>
+      <c r="D938" s="18" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A939" s="11" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B939" s="11" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C939" s="20"/>
+      <c r="D939" s="18" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A940" s="11" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B940" s="11" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C940" s="20"/>
+      <c r="D940" s="18" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A941" s="11" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B941" s="11" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C941" s="20"/>
+      <c r="D941" s="18" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A942" s="11" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B942" s="11" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C942" s="20"/>
+      <c r="D942" s="18" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A943" s="11" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B943" s="11" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C943" s="20"/>
+      <c r="D943" s="18" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A948" s="35" t="s">
         <v>2117</v>
       </c>
-      <c r="B937" s="35"/>
-      <c r="C937" s="35"/>
-      <c r="D937" s="35"/>
-      <c r="E937" s="35"/>
-      <c r="F937" s="35"/>
-      <c r="G937" s="35"/>
-      <c r="H937" s="35"/>
-      <c r="I937" s="35"/>
+      <c r="B948" s="35"/>
+      <c r="C948" s="35"/>
+      <c r="D948" s="35"/>
+      <c r="E948" s="35"/>
+      <c r="F948" s="35"/>
+      <c r="G948" s="35"/>
+      <c r="H948" s="35"/>
+      <c r="I948" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A937:I937"/>
+    <mergeCell ref="A948:I948"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A3"/>
@@ -22071,12 +22282,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="9.140625" style="8"/>
